--- a/ExtremeRolesTransData.xlsx
+++ b/ExtremeRolesTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\.PROJ\GIT\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB87D2B6-889B-49FC-84FA-917FFADF0D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9371AFB-7F6E-49A0-964B-457BB784AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="17685" windowWidth="20910" windowHeight="14190" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="4335" windowWidth="20910" windowHeight="11835" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -18210,14 +18210,6 @@
 *Does not nullify non-KILL ability deaths and Villain's KILLs</t>
   </si>
   <si>
-    <t>クルー役職
-ボタン能力「護衛」
-　・船員一人を対象にして発動
-　・発動後一定時間その人にシールドが付与される
-　・シールドが付与されている状況でその船員がキルされると、そのキル
-　が無効化される(ヴィランのキルは貫通)</t>
-  </si>
-  <si>
     <r>
       <t>守</t>
     </r>
@@ -18605,13 +18597,6 @@
 Carrier).
    - Targeted/Moving bodies can be taken by other living players' 
 abilities.</t>
-  </si>
-  <si>
-    <t>死体を移動できるゴーストクルー役職
-ボタン能力「騒霊」
-　・発動後近くにある死体を一定時間自由に移動できる
-　・キャリアー等の能力で他の人が死体を持っている場合、その死体を
-　奪うことは出来ない(逆に奪われることもある)</t>
   </si>
   <si>
     <t>喧闹鬼属于幽灵船员职业，可以移动尸体。
@@ -18726,13 +18711,6 @@
 one will be randomly selected
    - Can only access the tasks/terminals while the duration of the 
 ability.</t>
-  </si>
-  <si>
-    <t>霊界からサボタージュに干渉できるゴーストクルー役職
-ボタン能力「恵み」
-　・発動すると通信障害以外のサボタージュの修理画面を開くことが出来る
-　・複数人で治すサボタージュの場合、どちらかがランダムで選ばれる
-　・修理画面は一定時間経過後強制的にクローズされる</t>
   </si>
   <si>
     <t>潘神属于幽灵船员职业，可以在灵界修复飞船破坏。
@@ -18863,18 +18841,6 @@
     anything!</t>
   </si>
   <si>
-    <t>霊界から撮影した写真を共有出来るゴーストクルー役職
-この幽霊役職はフォトグラファーのみアサインされる
-ボタン能力「心霊撮影」:
-　・ボタンを押すことで範囲内のプレイヤーの位置情報を記録
-　した「写真」を撮ることが出来る
-　・撮った写真は会議開始後チャットでその「写真」の内容を
-　知ることが出来る
-　・「「心霊撮影」で正しい名前が表示される確率」によって一部名前は
-　表示されない
-　・写真の名前はランダム命名表から決定される</t>
-  </si>
-  <si>
     <t>天眼通属于幽灵船员职业，可以在死亡状态下拍摄照片并将信息传递给存活玩家。
 这个幽灵职业只会被分配给摄影师。
 主动技能“灵界摄影”：
@@ -19013,11 +18979,6 @@
 animation.</t>
   </si>
   <si>
-    <t>ベントを開閉できるゴーストインポスター役職
-ボタン能力「ベント開閉」
-　・ベントを開閉させます</t>
-  </si>
-  <si>
     <t>捣蛋鬼属于幽灵内鬼职业，可以开关管道口。</t>
   </si>
   <si>
@@ -19109,12 +19070,6 @@
 IMPOSTORS.
  "SABOLISH" : Clears the Sabotage cooldown on use.
    - This only affects IMPOSTORS.</t>
-  </si>
-  <si>
-    <t>仲間のサボタージュのクールタイムを回復させるゴーストインポスター役職
-ボタン能力「サボリッシュ」
-　・サボタージュのクールタイムを強制的に回復させる
-　・このクールタイムが回復するのはインポスター陣営のみ</t>
   </si>
   <si>
     <t>催命鬼属于幽灵内鬼职业，可以恢复内鬼阵营的紧急破坏冷却。
@@ -19245,15 +19200,6 @@
  - Is not a sabotage; cannot be repaired
  - Does not affect players which cannot be affected by the "lights-
     off" sabotage. </t>
-  </si>
-  <si>
-    <t>霊界から特殊な停電「幽霊停電」を起こせるゴーストインポスター役職
-この幽霊役職はラストウルフのみアサインされる
-ボタン能力「幽霊停電」:
-　・ボタンを押すことでプレイヤーの視界を停電時の視界にすることか
-　出来る
-　・この視界は停電時の視界の値が参照されるので停電等の影響が受けない
-　設定になっている役職は影響を受けない</t>
   </si>
   <si>
     <t>炼狱鬼属于幽灵内鬼职业，可以在死亡状态下造成额外照明破坏。
@@ -19584,34 +19530,6 @@
     <phoneticPr fontId="31"/>
   </si>
   <si>
-    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「{0}」は私のもの&lt;/i&gt;
-&lt;alpha=#FF&gt;&lt;b&gt;陣営：&lt;/b&gt;&lt;color=#808080&gt;ニュートラル (&lt;/color&gt;&lt;color=#c71585&gt;ヤンデレ&lt;/color&gt;&lt;color=#808080&gt;)&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
-&lt;/line-height&gt;&lt;size=90%&gt;
-&lt;align="left"&gt;愛に飢えた&lt;color=#808080&gt;ニュートラル&lt;/color&gt;役職。&lt;b&gt;「わたしたち」&lt;/b&gt;の勝利を目指して&lt;color=#c71585&gt;&lt;b&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を排除しよう。&lt;/line-height&gt;&lt;size=125%&gt;
-―――――――――
-&lt;/line-height&gt;&lt;size=85%&gt;
-&lt;b&gt;勝利条件1：&lt;/b&gt;以下を満たす場合（&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;と同時勝利）
-&lt;indent=5%&gt;①：&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;の人が生存
-②：&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;以外の&lt;color=red&gt;&lt;color=red&gt;インポスター&lt;/color&gt;&lt;/color&gt;及び&lt;nobr&gt;キルボタン&lt;/nobr&gt;を持つ&lt;color=#808080&gt;第三陣営&lt;/color&gt;が全滅している
-③：生存者が同じ陣営もしくは片思いの人&lt;/indent&gt;
-&lt;b&gt;勝利条件2：&lt;/b&gt;自分以外の生存者が&lt;color=#44FFF7&gt;1人&lt;/color&gt;かつ&lt;color=#44FFF7&gt;無害&lt;/color&gt;(クルー等) &lt;line-height=125%&gt;
-&lt;/line-height&gt;&lt;size=125%&gt;
-―――――――――
-&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;：忌むべき愛の敵！&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;&lt;/line-height&gt;&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;の一定距離に一定時間以上近くに居た船員は&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;として登録される。
-&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;が一人でも存在するとき、それらが全て排除されるまで&lt;color=red&gt;&lt;nobr&gt;キルボタン&lt;/nobr&gt;&lt;/color&gt;が付与される。
-付与された&lt;color=red&gt;&lt;nobr&gt;キルボタン&lt;/nobr&gt;&lt;/color&gt;はキルした相手によってクールタイムが一時的に増減する：&lt;/indent&gt;
-&lt;indent=10%&gt;&lt;color=#c71585&gt;&lt;nobr&gt;&lt;b&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;をキル：&lt;/b&gt;大きく減少
-&lt;color=#c71585&gt;&lt;nobr&gt;&lt;b&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;以外(片思いの人も含む)をキル：&lt;/b&gt;増加&lt;/indent&gt;
-&lt;indent=5%&gt;増減したキルクールは次の会議後にリセットされる。&lt;/indent&gt;&lt;line-height=80%&gt;
-&lt;/line-height&gt;
-&lt;size=95%&gt;&lt;b&gt;◎「暴走」：最後に愛は勝つ！&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;が一定時間追加されなかった場合、次の会議の後から次の次の会議開始まで&lt;b&gt;&lt;nobr&gt;暴走&lt;/nobr&gt;&lt;/b&gt;状態になる
-&lt;b&gt;&lt;nobr&gt;暴走&lt;/nobr&gt;&lt;/b&gt;中は常に&lt;color=red&gt;&lt;nobr&gt;キルボタン&lt;/nobr&gt;&lt;/color&gt;を得る
-&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;が死亡した場合、常時&lt;b&gt;&lt;nobr&gt;暴走&lt;/nobr&gt;&lt;/b&gt;状態になる&lt;/indent&gt;</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
     <t>Roll the dice to vote twice!</t>
     <phoneticPr fontId="31"/>
   </si>
@@ -23862,22 +23780,6 @@
   </si>
   <si>
     <t>フォトグラファーに覚醒するタスク進捗率</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
-    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;綺麗な写真を撮ろう&lt;/i&gt;
-&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
-&lt;/line-height&gt;&lt;size=90%&gt;
-&lt;align="left"&gt;&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;撮影&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;できる能力に&lt;b&gt;覚醒&lt;/b&gt;した &lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;役職。証拠写真をすっぱ抜いて、&lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
-―――――――――
-&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#3B813C&gt;&lt;b&gt;「撮影」&lt;/b&gt;&lt;/color&gt;：はい、チーズ！&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;&lt;/line-height&gt; &lt;nobr&gt;&lt;b&gt;使用回数&lt;/nobr&gt;&lt;/b&gt;を１消費して&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;撮影&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;する。
-&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;には一定範囲内にいるプレイヤーが記録されており、次の会議開始後の&lt;b&gt;会議チャット&lt;/b&gt;で内容を確認できる。
-&lt;i&gt;なお、写真の名前は完全にランダムであり、推理要素にはならない。&lt;/i&gt;&lt;/indent&gt;&lt;line-height=80%&gt;
-&lt;/line-height&gt;
-&lt;size=95%&gt;&lt;b&gt;★覚醒条件&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;設定「&lt;b&gt;フォトグラファーに覚醒するタスク進捗率&lt;/b&gt;」の設定値以上タスクを進行する
-&lt;br&gt;</t>
     <phoneticPr fontId="31"/>
   </si>
   <si>
@@ -23994,22 +23896,6 @@
     <phoneticPr fontId="31"/>
   </si>
   <si>
-    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;投票が"増えるか"どうか運次第&lt;/i&gt;
-&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
-&lt;/line-height&gt;&lt;size=90%&gt;
-&lt;align="left"&gt;&lt;color=#c7b994&gt;&lt;nobr&gt;&lt;b&gt;ランダムで票が増える&lt;/b&gt;&lt;/nobr&gt;&lt;/color&gt;&lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;役職。運を味方につけ、&lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
-―――――――――
-&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#c7b994&gt;&lt;nobr&gt;運試し&lt;/nobr&gt;&lt;/color&gt;： ジャックポットをねらえ&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;&lt;/line-height&gt;会議での投票集計時に&lt;b&gt;自動で発動&lt;/b&gt;する。自分の投票数が&lt;color=#c7b994&gt;&lt;nobr&gt;&lt;b&gt;０～２表の間でランダムに変化してカウント&lt;/color&gt;&lt;/nobr&gt;&lt;/b&gt;される。
-票の集計アニメーションは変化せず、結果でしかわからない。
-確率は以下の通り：
-&lt;indent=10%&gt;&lt;b&gt;０票：&lt;/b&gt;[100-&lt;b&gt;「投票数が1票になる確率」&lt;/b&gt;]/2
-&lt;b&gt;１票&lt;/b&gt;：設定&lt;b&gt;「投票数が1票になる確率」&lt;/b&gt;
-&lt;b&gt;２票&lt;/b&gt;：[100-&lt;b&gt;「投票数が1票になる確率」&lt;/b&gt;]/2&lt;/indent&gt;&lt;indent=5%&gt;
-&lt;br&gt;</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
     <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;この会議、私が仕切らせて頂く！！&lt;/i&gt;
 &lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
 &lt;/line-height&gt;&lt;size=90%&gt;
@@ -24124,23 +24010,6 @@
 ベントが使用できるクルー役職。タスクや巡回、逃走の経路に的確に利用しよう。
 ※これはAmong Usの公式役職であり、Extreme Rolesで追加されたものではありません。&lt;/indent&gt;
 &lt;br&gt;</t>
-  </si>
-  <si>
-    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt; 今宵の獲物は、どの様な悲鳴を上げるのか &lt;/i&gt;
-&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
-&lt;/line-height&gt;&lt;size=90%&gt;
-&lt;align="left"&gt;「ターゲット」の殺害を狙う&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;役職。&lt;color=red&gt;&lt;b&gt;ターゲット&lt;/b&gt;&lt;/color&gt;を効率よく処理して、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
-―――――――――
-&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「ターゲット」&lt;/b&gt;&lt;/color&gt;： 今日のご飯は？&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;&lt;/line-height&gt;&lt;b&gt;現在のターゲット：{2}&lt;/b&gt;
-常時発動。生存しているインポスター以外のプレイヤーから一人をランダムに指定する。指定されたプレイヤーを左下に表示し、また画面上にそのプレイヤーの方向を示す矢印を表示する。
-&lt;b&gt;この役職は、キルした相手がターゲットかどうかでキルクールが異なる。&lt;/b&gt;
-&lt;indent=10%&gt;&lt;b&gt;ターゲットキル時：&lt;/b&gt;{0}
-&lt;b&gt;非ターゲットキル時：&lt;/b&gt;{1}
-&lt;/indent&gt;&lt;indent=5%&gt;増減したキルクールは、会議ごとに初期値にリセットされる。
-&lt;/indent&gt;
-&lt;br&gt;</t>
-    <phoneticPr fontId="31"/>
   </si>
   <si>
     <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;ハック！クラック！！No Report！！！&lt;/i&gt;
@@ -24275,19 +24144,6 @@
 &lt;/line-height&gt;
 &lt;size=95%&gt;&lt;b&gt;★覚醒条件&lt;/b&gt;&lt;size=85%&gt;
 &lt;indent=5%&gt;インポスターの生存者数が一定値以下
-&lt;/indent&gt;
-&lt;br&gt;</t>
-    <phoneticPr fontId="31"/>
-  </si>
-  <si>
-    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;どんな物にも変身可能な軟体インポスター&lt;/i&gt;
-&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
-&lt;/line-height&gt;&lt;size=90%&gt;
-&lt;align="left"&gt;いろんな物体に&lt;b&gt;変身&lt;/b&gt;できる&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;役職。油断した相手をからめ取り、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
-―――――――――
-&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「モーフ」&lt;/b&gt;&lt;/color&gt;：誰もいないと思った？&lt;/b&gt;&lt;size=85%&gt;
-&lt;indent=5%&gt;&lt;/line-height&gt;付近の変身可能なマップオブジェクトを対象として使用する。自分の姿をそのマップオブジェクトに&lt;b&gt;変化&lt;/b&gt;させる。
-変身中もキルなどは可能だが、ベントやはしごの使用で擬態が解除される。
 &lt;/indent&gt;
 &lt;br&gt;</t>
     <phoneticPr fontId="31"/>
@@ -24886,6 +24742,182 @@
 &lt;/line-height&gt;
 &lt;size=95%&gt;&lt;b&gt;★覚醒条件&lt;/b&gt;&lt;size=85%&gt;
 &lt;indent=5%&gt;一定回数キルを行う
+&lt;/indent&gt;
+&lt;br&gt;</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;どんな物にも変身可能な軟体インポスター&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;いろんな物体に&lt;b&gt;変身&lt;/b&gt;できる&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;役職。油断した相手をからめ取り、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「モーフ」&lt;/b&gt;&lt;/color&gt;：誰もいないと思った？&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt;付近の変身可能なマップオブジェクトを対象として使用する。自分の姿をそのマップオブジェクトに&lt;b&gt;変化&lt;/b&gt;させる。
+変身中もキルなどは可能だが、ベントやはしごの使用で擬態が解除される。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;ベントを開閉させてクルーを驚かせよう&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;ベントを&lt;b&gt;開閉&lt;/b&gt;できる&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;の&lt;b&gt;幽霊&lt;/b&gt;。他のプレイヤーを驚かせて、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「ベント開閉」&lt;/b&gt;&lt;/color&gt;：ガタガタ言わせたる&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt;付近の&lt;b&gt;ベント&lt;/b&gt;を対象として使用する。対象のベントの開閉させる。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;サボタージュのクールタイムを回復させ有利に動こう&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;&lt;b&gt;サボタージュを加速&lt;/b&gt;できる&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;の&lt;b&gt;幽霊&lt;/b&gt;。より多くのサボタージュでチャンスを産み、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「サボリッシュ」&lt;/b&gt;&lt;/color&gt;：おかわり入りまーす！&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt; &lt;b&gt;使用回数&lt;/b&gt;を1消費して使用する。&lt;b&gt;&lt;color=red&gt;インポスター陣営&lt;/color&gt;&lt;/b&gt;のサボタージュのクールタイムを無視して&lt;b&gt;強制的に使用可能にする&lt;/b&gt;。
+この能力で他の陣営の使用するサボタージュのクールタイムは影響を受けない。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;投票が"増えるか"どうか運次第&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;&lt;color=#c7b994&gt;&lt;nobr&gt;&lt;b&gt;ランダムで票が増える&lt;/b&gt;&lt;/nobr&gt;&lt;/color&gt;&lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;役職。運を味方につけ、&lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#c7b994&gt;&lt;nobr&gt;運試し&lt;/nobr&gt;&lt;/color&gt;： ジャックポットをねらえ&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt;会議での投票集計時に&lt;b&gt;自動で発動&lt;/b&gt;する。自分の投票数が&lt;color=#c7b994&gt;&lt;nobr&gt;&lt;b&gt;０～２表の間でランダムに変化してカウント&lt;/color&gt;&lt;/nobr&gt;&lt;/b&gt;される。
+票の集計アニメーションは変化せず、結果でしかわからない。
+確率は以下の通り：
+&lt;indent=10%&gt;&lt;b&gt;０票：&lt;/b&gt;[100-&lt;b&gt;「投票数が1票になる確率」&lt;/b&gt;]/2
+&lt;b&gt;１票&lt;/b&gt;：設定&lt;b&gt;「投票数が1票になる確率」&lt;/b&gt;
+&lt;b&gt;２票&lt;/b&gt;：[100-&lt;b&gt;「投票数が1票になる確率」&lt;/b&gt;]/2&lt;/indent&gt;&lt;indent=5%&gt;
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;綺麗な写真を撮ろう&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;撮影&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;できる能力に&lt;b&gt;覚醒&lt;/b&gt;した &lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;役職。証拠写真をすっぱ抜いて、&lt;color=#44FFF7&gt;&lt;b&gt;クルー&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#3B813C&gt;&lt;b&gt;「撮影」&lt;/b&gt;&lt;/color&gt;：はい、チーズ！&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt; &lt;nobr&gt;&lt;b&gt;使用回数&lt;/nobr&gt;&lt;/b&gt;を１消費して&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;撮影&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;する。
+&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;には一定範囲内にいるプレイヤーが記録されており、次の会議開始後の&lt;b&gt;会議チャット&lt;/b&gt;で内容を確認できる。
+&lt;i&gt;なお、写真の名前は完全にランダムであり、推理要素にはならない。&lt;/i&gt;&lt;/indent&gt;&lt;line-height=80%&gt;
+&lt;/line-height&gt;
+&lt;size=95%&gt;&lt;b&gt;★覚醒条件&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;設定「&lt;b&gt;フォトグラファーに覚醒するタスク進捗率&lt;/b&gt;」の設定値以上タスクを進行する
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「{0}」は私のもの&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営：&lt;/b&gt;&lt;color=#808080&gt;ニュートラル (&lt;/color&gt;&lt;color=#c71585&gt;ヤンデレ&lt;/color&gt;&lt;color=#808080&gt;)&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;愛に飢えた&lt;color=#808080&gt;ニュートラル&lt;/color&gt;役職。&lt;b&gt;「わたしたち」&lt;/b&gt;の勝利を目指して&lt;color=#c71585&gt;&lt;b&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を排除しよう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=85%&gt;
+&lt;b&gt;勝利条件1：&lt;/b&gt;以下を満たす場合（&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;と同時勝利）
+&lt;indent=5%&gt;①：&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;の人が生存
+②：&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;以外の&lt;color=red&gt;&lt;color=red&gt;インポスター&lt;/color&gt;&lt;/color&gt;及び&lt;nobr&gt;キルボタン&lt;/nobr&gt;を持つ&lt;color=#808080&gt;第三陣営&lt;/color&gt;が全滅している
+③：生存者が同じ陣営もしくは片思いの人&lt;/indent&gt;
+&lt;b&gt;勝利条件2：&lt;/b&gt;自分以外の生存者が&lt;color=#44FFF7&gt;1人&lt;/color&gt;かつ&lt;color=#44FFF7&gt;無害&lt;/color&gt;(クルー等) &lt;line-height=125%&gt;
+&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;：忌むべき愛の敵！&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt;&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;の一定距離に一定時間以上近くに居た船員は&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;として登録される。
+&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;が一人でも存在するとき、それらが全て排除されるまで&lt;color=red&gt;&lt;nobr&gt;キルボタン&lt;/nobr&gt;&lt;/color&gt;が付与される。
+付与された&lt;color=red&gt;&lt;nobr&gt;キルボタン&lt;/nobr&gt;&lt;/color&gt;はキルした相手によってクールタイムが一時的に増減する：&lt;/indent&gt;
+&lt;indent=10%&gt;&lt;color=#c71585&gt;&lt;nobr&gt;&lt;b&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;をキル：&lt;/b&gt;大きく減少
+&lt;color=#c71585&gt;&lt;nobr&gt;&lt;b&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;以外(片思いの人も含む)をキル：&lt;/b&gt;増加&lt;/indent&gt;
+&lt;indent=5%&gt;増減したキルクールは次の会議後にリセットされる。&lt;/indent&gt;&lt;line-height=80%&gt;
+&lt;/line-height&gt;
+&lt;size=95%&gt;&lt;b&gt;◎「暴走」：最後に愛は勝つ！&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;color=#c71585&gt;&lt;nobr&gt;「邪魔者」&lt;/nobr&gt;&lt;/color&gt;が一定時間追加されなかった場合、次の会議の後から次の次の会議開始まで&lt;b&gt;&lt;nobr&gt;暴走&lt;/nobr&gt;&lt;/b&gt;状態になる
+&lt;b&gt;&lt;nobr&gt;暴走&lt;/nobr&gt;&lt;/b&gt;中は常に&lt;color=red&gt;&lt;nobr&gt;キルボタン&lt;/nobr&gt;&lt;/color&gt;を得る
+&lt;color=#ff6be4&gt;「片思いの人」&lt;/color&gt;が死亡した場合、常時&lt;b&gt;&lt;nobr&gt;暴走&lt;/nobr&gt;&lt;/b&gt;状態になる&lt;/indent&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt; 今宵の獲物は、どの様な悲鳴を上げるのか &lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;「ターゲット」の殺害を狙う&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;役職。&lt;color=red&gt;&lt;b&gt;ターゲット&lt;/b&gt;&lt;/color&gt;を効率よく処理して、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「ターゲット」&lt;/b&gt;&lt;/color&gt;： 今日のご飯は？&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt;&lt;b&gt;現在のターゲット：{2}&lt;/b&gt;
+常時発動。生存しているインポスター以外のプレイヤーから一人をランダムに指定する。指定されたプレイヤーを左下に表示し、また画面上にそのプレイヤーの方向を示す矢印を表示する。
+&lt;b&gt;この役職は、キルした相手がターゲットかどうかでキルクールが異なる。&lt;/b&gt;
+&lt;indent=10%&gt;&lt;b&gt;ターゲットキル時：&lt;/b&gt;{0}
+&lt;b&gt;非ターゲットキル時：&lt;/b&gt;{1}
+&lt;/indent&gt;&lt;indent=5%&gt;増減したキルクールは、会議ごとに初期値にリセットされる。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「心霊撮影」で決定的な瞬間を捉えろ&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt; 霊界から&lt;b&gt;写真を撮影&lt;/b&gt;することができる&lt;b&gt;&lt;color=#3B813C&gt;フォトグラファー&lt;/color&gt;&lt;/b&gt;の&lt;b&gt;幽霊&lt;/b&gt;。&lt;b&gt;サボタージュ&lt;/b&gt;を素早く修理して、&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=85%&gt;この役職は&lt;b&gt;&lt;color=#3B813C&gt;フォトグラファー&lt;/color&gt;&lt;/b&gt;にのみアサインされる。
+&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#3B813C&gt;&lt;b&gt;「心霊撮影」&lt;/b&gt;&lt;/color&gt;：心霊写真を撮る心霊&lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt; &lt;nobr&gt;&lt;b&gt;使用回数&lt;/nobr&gt;&lt;/b&gt;を１消費して&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;を&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;撮影&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;する。
+&lt;color=#3B813C&gt;&lt;b&gt;&lt;nobr&gt;写真&lt;/nobr&gt;&lt;/b&gt;&lt;/color&gt;には一定範囲内にいるプレイヤーが記録されており、次の会議開始後の&lt;b&gt;会議チャット&lt;/b&gt;で内容を確認できる。
+ただし、一定の確率でぼやけてプレイヤーが判別できないことがある。
+&lt;i&gt;なお、写真の名前は完全にランダムであり、推理要素にはならない。&lt;/i&gt;
+&lt;/indent&gt;
+&lt;br&gt;
+</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「幽霊停電」を起こしインポスターをサポートしよう&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;&lt;b&gt;特殊な停電 &lt;/b&gt;を起こすことができる&lt;b&gt;&lt;color=red&gt;インポスター&lt;/b&gt;&lt;/color&gt;の&lt;b&gt;幽霊&lt;/b&gt;。、&lt;color=red&gt;&lt;b&gt;インポスター&lt;/b&gt;&lt;/color&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=85%&gt;この役職は&lt;color=red&gt;&lt;b&gt;ラストウルフ&lt;/color&gt;&lt;/b&gt;にのみアサインされる。
+&lt;size=95%&gt;&lt;b&gt;◎&lt;color=red&gt;&lt;b&gt;「幽霊停電」&lt;/b&gt;&lt;/color&gt;：ブレーカーをポチッと &lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt; &lt;b&gt;使用回数&lt;/b&gt;を1消費して使用する。プレイヤーの視界を狭め、サボタージュと同様の&lt;b&gt;停電状態&lt;/b&gt;にする。
+この停電は時間経過でのみ回復可能である他は&lt;b&gt;サボタージュによる停電&lt;/b&gt;と同等であり、&lt;b&gt;停電&lt;/b&gt;の影響を受けないプレイヤーは同様に影響を受けない。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「恵み」を使い、サボタージュを修理しよう&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt; 幽霊でありながら&lt;b&gt;サボタージュに干渉&lt;/b&gt;することができる&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;の&lt;b&gt;幽霊&lt;/b&gt;。&lt;b&gt;サボタージュ&lt;/b&gt;を素早く修理して、&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#faebd7&gt;&lt;b&gt;「恵み」&lt;/b&gt;&lt;/color&gt;：神の見えざる手 &lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt; &lt;b&gt;通信障害を除くサボタージュが発動中&lt;/b&gt;である時に、&lt;b&gt;使用回数&lt;/b&gt;を1消費して使用する。一定時間だけサボタージュの修理画面を開き、干渉することができる。リアクターなど複数人の干渉が必要なサボタージュの場合は、いずれかの画面がランダムで選ばれる。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「騒霊」で通報しやすい場所に死体を運ぼう&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt; &lt;b&gt;死体を運搬&lt;/b&gt;することができる&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;の&lt;b&gt;幽霊&lt;/b&gt;。生きているクルーに死体を通報させ、&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#54524b&gt;&lt;b&gt;「騒霊」&lt;/b&gt;&lt;/color&gt;：幽霊と屍体のダンス &lt;/b&gt;&lt;size=85%&gt;
+&lt;indent=5%&gt;&lt;/line-height&gt; プレイヤーの死体を対象として使用する。発動後一定時間だけ死体を&lt;b&gt;自由に移動&lt;/b&gt;できる。
+&lt;color=red&gt;&lt;b&gt;キャリアー&lt;/color&gt;&lt;/b&gt;の運搬はこの能力よりも優先され、&lt;color=red&gt;&lt;b&gt;キャリアー&lt;/color&gt;&lt;/b&gt;は「騒霊」中の死体を奪うことができるほか、&lt;color=red&gt;&lt;b&gt;キャリアー&lt;/color&gt;&lt;/b&gt;が運搬中の死体は能力の対象にできない。
+&lt;/indent&gt;
+&lt;br&gt;</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>&lt;line-height=130%&gt;&lt;indent=5%&gt;&lt;size=85%&gt;&lt;alpha=#CC&gt;&lt;i&gt;「護衛」でクルーを魔の手から護れ&lt;/i&gt;
+&lt;alpha=#FF&gt;&lt;b&gt;陣営： &lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;&lt;/line-height&gt;&lt;/indent&gt;&lt;line-height=40%&gt;
+&lt;/line-height&gt;&lt;size=90%&gt;
+&lt;align="left"&gt;生きているプレイヤーを&lt;b&gt;護衛&lt;/b&gt;することができる&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;の&lt;b&gt;幽霊&lt;/b&gt;。敵のキルから味方を護り、&lt;b&gt;&lt;color=#44FFF7&gt;クルー&lt;/color&gt;&lt;/b&gt;を勝利に導こう。&lt;/line-height&gt;&lt;size=125%&gt;
+―――――――――
+&lt;/line-height&gt;&lt;size=95%&gt;&lt;b&gt;◎&lt;color=#44FFF7&gt;&lt;b&gt;「護衛」&lt;/b&gt;&lt;/color&gt;：あなたを護ります &lt;/b&gt;&lt;size=85%&gt;&lt;indent=5%&gt;&lt;/line-height&gt; 生存しているプレイヤーを対象として使用する。発動後一定時間だけ、&lt;b&gt;キルボタン&lt;/b&gt;によるキルを無効化するシールドを付与する。
+このシールドはヴィランによるキルや、自爆等の特殊キルには効果がない。
 &lt;/indent&gt;
 &lt;br&gt;</t>
     <phoneticPr fontId="31"/>
@@ -30741,8 +30773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q394"/>
   <sheetViews>
-    <sheetView topLeftCell="B364" workbookViewId="0">
-      <selection activeCell="M352" sqref="M352"/>
+    <sheetView topLeftCell="B307" workbookViewId="0">
+      <selection activeCell="M308" sqref="M308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -30813,7 +30845,7 @@
         <v>1032</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>5337</v>
+        <v>5327</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>1033</v>
@@ -30827,7 +30859,7 @@
         <v>1035</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>5338</v>
+        <v>5328</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>1036</v>
@@ -30841,7 +30873,7 @@
         <v>1038</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>5351</v>
+        <v>5339</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>1039</v>
@@ -30965,10 +30997,10 @@
         <v>1069</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>5091</v>
+        <v>5084</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>5336</v>
+        <v>5326</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>1070</v>
@@ -31259,10 +31291,10 @@
         <v>1135</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>5092</v>
+        <v>5085</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>5328</v>
+        <v>5318</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>1136</v>
@@ -31386,7 +31418,7 @@
         <v>1153</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>5094</v>
+        <v>5087</v>
       </c>
       <c r="M46" t="s">
         <v>1154</v>
@@ -31414,10 +31446,10 @@
         <v>1160</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>5093</v>
+        <v>5086</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>5350</v>
+        <v>5338</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>1161</v>
@@ -31613,7 +31645,7 @@
         <v>1199</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>5321</v>
+        <v>5312</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>1200</v>
@@ -31627,7 +31659,7 @@
         <v>1202</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>5322</v>
+        <v>5313</v>
       </c>
       <c r="O64" s="7" t="s">
         <v>1203</v>
@@ -31781,7 +31813,7 @@
         <v>1227</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>5352</v>
+        <v>5340</v>
       </c>
       <c r="O76" s="7" t="s">
         <v>1228</v>
@@ -31991,7 +32023,7 @@
         <v>1267</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>5353</v>
+        <v>5341</v>
       </c>
       <c r="O92" s="7" t="s">
         <v>1268</v>
@@ -32243,7 +32275,7 @@
         <v>1320</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>5354</v>
+        <v>5342</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>1321</v>
@@ -32594,7 +32626,7 @@
         <v>1401</v>
       </c>
       <c r="M137" s="5" t="s">
-        <v>5355</v>
+        <v>5343</v>
       </c>
       <c r="O137" s="8" t="s">
         <v>1402</v>
@@ -32790,7 +32822,7 @@
         <v>1439</v>
       </c>
       <c r="M152" s="5" t="s">
-        <v>5359</v>
+        <v>5347</v>
       </c>
       <c r="O152" s="7" t="s">
         <v>1440</v>
@@ -33003,7 +33035,7 @@
         <v>1481</v>
       </c>
       <c r="M168" s="5" t="s">
-        <v>5095</v>
+        <v>5088</v>
       </c>
       <c r="O168" s="7" t="s">
         <v>1482</v>
@@ -33185,7 +33217,7 @@
         <v>1517</v>
       </c>
       <c r="M183" s="5" t="s">
-        <v>5325</v>
+        <v>5316</v>
       </c>
       <c r="O183" s="7" t="s">
         <v>1518</v>
@@ -33549,7 +33581,7 @@
         <v>1603</v>
       </c>
       <c r="M210" s="5" t="s">
-        <v>5323</v>
+        <v>5314</v>
       </c>
       <c r="O210" s="7" t="s">
         <v>1604</v>
@@ -33563,7 +33595,7 @@
         <v>1606</v>
       </c>
       <c r="M211" t="s">
-        <v>5324</v>
+        <v>5315</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>1607</v>
@@ -33759,7 +33791,7 @@
         <v>1643</v>
       </c>
       <c r="M226" s="5" t="s">
-        <v>5360</v>
+        <v>5348</v>
       </c>
       <c r="O226" s="7" t="s">
         <v>1644</v>
@@ -33969,7 +34001,7 @@
         <v>1683</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>5096</v>
+        <v>5089</v>
       </c>
       <c r="O242" s="7" t="s">
         <v>1684</v>
@@ -34207,7 +34239,7 @@
         <v>1732</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>5311</v>
+        <v>5303</v>
       </c>
       <c r="O260" s="7" t="s">
         <v>1733</v>
@@ -34417,7 +34449,7 @@
         <v>1772</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>5361</v>
+        <v>5349</v>
       </c>
       <c r="O276" s="7" t="s">
         <v>1773</v>
@@ -34515,7 +34547,7 @@
         <v>1698</v>
       </c>
       <c r="M285" t="s">
-        <v>5312</v>
+        <v>5304</v>
       </c>
       <c r="O285" t="s">
         <v>1783</v>
@@ -34585,7 +34617,7 @@
         <v>1801</v>
       </c>
       <c r="M290" s="5" t="s">
-        <v>5313</v>
+        <v>5305</v>
       </c>
       <c r="O290" s="5" t="s">
         <v>1802</v>
@@ -34697,7 +34729,7 @@
         <v>1698</v>
       </c>
       <c r="M299" t="s">
-        <v>5314</v>
+        <v>5306</v>
       </c>
       <c r="O299" t="s">
         <v>1816</v>
@@ -34823,7 +34855,7 @@
         <v>1850</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>5315</v>
+        <v>5367</v>
       </c>
       <c r="O308" s="5" t="s">
         <v>1851</v>
@@ -34991,7 +35023,7 @@
         <v>1881</v>
       </c>
       <c r="M321" t="s">
-        <v>5316</v>
+        <v>5307</v>
       </c>
       <c r="O321" t="s">
         <v>1882</v>
@@ -35142,10 +35174,10 @@
         <v>1922</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>5317</v>
+        <v>5308</v>
       </c>
       <c r="M332" s="5" t="s">
-        <v>5362</v>
+        <v>5350</v>
       </c>
       <c r="O332" s="5" t="s">
         <v>1923</v>
@@ -35257,7 +35289,7 @@
         <v>1698</v>
       </c>
       <c r="M341" t="s">
-        <v>5319</v>
+        <v>5310</v>
       </c>
       <c r="O341" t="s">
         <v>1937</v>
@@ -35271,7 +35303,7 @@
         <v>1939</v>
       </c>
       <c r="M342" t="s">
-        <v>5318</v>
+        <v>5309</v>
       </c>
       <c r="O342" t="s">
         <v>1940</v>
@@ -35411,7 +35443,7 @@
         <v>1978</v>
       </c>
       <c r="M352" s="5" t="s">
-        <v>5365</v>
+        <v>5353</v>
       </c>
       <c r="O352" s="5" t="s">
         <v>1979</v>
@@ -35534,7 +35566,7 @@
         <v>1996</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>5100</v>
+        <v>5092</v>
       </c>
       <c r="M362" t="s">
         <v>1997</v>
@@ -35562,10 +35594,10 @@
         <v>2003</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>5097</v>
+        <v>5090</v>
       </c>
       <c r="M364" s="5" t="s">
-        <v>5326</v>
+        <v>5366</v>
       </c>
       <c r="O364" s="5" t="s">
         <v>2004</v>
@@ -35733,7 +35765,7 @@
         <v>2034</v>
       </c>
       <c r="M377" s="5" t="s">
-        <v>5320</v>
+        <v>5311</v>
       </c>
       <c r="O377" s="5" t="s">
         <v>2035</v>
@@ -35890,10 +35922,10 @@
         <v>2063</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>5098</v>
+        <v>5091</v>
       </c>
       <c r="M392" s="5" t="s">
-        <v>5327</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="393" spans="1:13">
@@ -35938,8 +35970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C427" workbookViewId="0">
-      <selection activeCell="O430" sqref="O430"/>
+    <sheetView topLeftCell="J37" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -36010,10 +36042,10 @@
         <v>2071</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>5335</v>
+        <v>5325</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>5130</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="393.75">
@@ -36024,10 +36056,10 @@
         <v>2073</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>5334</v>
+        <v>5324</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>5131</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -36083,7 +36115,7 @@
         <v>1051</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -36097,7 +36129,7 @@
         <v>1055</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -36125,7 +36157,7 @@
         <v>1081</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -36139,7 +36171,7 @@
         <v>1085</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -36153,7 +36185,7 @@
         <v>1089</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1">
@@ -36167,7 +36199,7 @@
         <v>1093</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -36178,7 +36210,7 @@
         <v>2091</v>
       </c>
       <c r="M15" t="s">
-        <v>5329</v>
+        <v>5319</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>2092</v>
@@ -36206,10 +36238,10 @@
         <v>2097</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>5371</v>
+        <v>5359</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>5138</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -36265,7 +36297,7 @@
         <v>1051</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -36279,7 +36311,7 @@
         <v>1055</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -36307,7 +36339,7 @@
         <v>1081</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -36321,7 +36353,7 @@
         <v>1085</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>5139</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -36335,7 +36367,7 @@
         <v>1089</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -36349,7 +36381,7 @@
         <v>1093</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -36363,7 +36395,7 @@
         <v>2112</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>5140</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -36391,7 +36423,7 @@
         <v>2119</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>5105</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -36405,7 +36437,7 @@
         <v>2122</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>5141</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -36419,7 +36451,7 @@
         <v>2125</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>5142</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -36433,7 +36465,7 @@
         <v>2128</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -36447,7 +36479,7 @@
         <v>2132</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>5107</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="18" customHeight="1">
@@ -36472,10 +36504,10 @@
         <v>2138</v>
       </c>
       <c r="M37" t="s">
-        <v>5332</v>
+        <v>5322</v>
       </c>
       <c r="O37" s="19" t="s">
-        <v>5143</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -36500,10 +36532,10 @@
         <v>2144</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>5356</v>
+        <v>5344</v>
       </c>
       <c r="O39" s="17" t="s">
-        <v>5144</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -36514,7 +36546,7 @@
         <v>2146</v>
       </c>
       <c r="M40" t="s">
-        <v>5331</v>
+        <v>5321</v>
       </c>
       <c r="O40" s="19" t="s">
         <v>2147</v>
@@ -36528,7 +36560,7 @@
         <v>2149</v>
       </c>
       <c r="M41" t="s">
-        <v>5330</v>
+        <v>5320</v>
       </c>
       <c r="O41" s="19" t="s">
         <v>2150</v>
@@ -36587,7 +36619,7 @@
         <v>1051</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -36601,7 +36633,7 @@
         <v>1055</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -36629,7 +36661,7 @@
         <v>1081</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -36643,7 +36675,7 @@
         <v>1085</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -36657,7 +36689,7 @@
         <v>1089</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -36671,7 +36703,7 @@
         <v>1093</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -36685,7 +36717,7 @@
         <v>2165</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -36699,7 +36731,7 @@
         <v>2168</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>5108</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -36727,7 +36759,7 @@
         <v>2175</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>5145</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -36741,7 +36773,7 @@
         <v>2178</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>5146</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -36755,7 +36787,7 @@
         <v>2181</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>5146</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="409.5">
@@ -36766,10 +36798,10 @@
         <v>2183</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>5357</v>
+        <v>5345</v>
       </c>
       <c r="O59" s="17" t="s">
-        <v>5147</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -36797,7 +36829,7 @@
         <v>2190</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>5148</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -36811,7 +36843,7 @@
         <v>2190</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>5148</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -36839,7 +36871,7 @@
         <v>1051</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -36853,7 +36885,7 @@
         <v>1055</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -36881,7 +36913,7 @@
         <v>1081</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -36895,7 +36927,7 @@
         <v>1085</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>5139</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -36909,12 +36941,12 @@
         <v>1089</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="4" t="s">
-        <v>5104</v>
+        <v>5096</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>1092</v>
@@ -36923,7 +36955,7 @@
         <v>1093</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -36937,7 +36969,7 @@
         <v>2201</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>5149</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -36951,7 +36983,7 @@
         <v>2204</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>5150</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -36973,7 +37005,7 @@
         <v>2209</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>5103</v>
+        <v>5095</v>
       </c>
       <c r="M75" t="s">
         <v>2210</v>
@@ -36987,7 +37019,7 @@
         <v>2212</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>5101</v>
+        <v>5093</v>
       </c>
       <c r="M76" t="s">
         <v>2214</v>
@@ -36998,7 +37030,7 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="20" t="s">
-        <v>5151</v>
+        <v>5143</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>2216</v>
@@ -37013,7 +37045,7 @@
         <v>2218</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>5102</v>
+        <v>5094</v>
       </c>
       <c r="M78" t="s">
         <v>2219</v>
@@ -37031,7 +37063,7 @@
         <v>2222</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>5152</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -37045,7 +37077,7 @@
         <v>2225</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>5153</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="19.5" customHeight="1">
@@ -37059,7 +37091,7 @@
         <v>2228</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>5154</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="409.5">
@@ -37070,10 +37102,10 @@
         <v>2230</v>
       </c>
       <c r="M82" s="5" t="s">
-        <v>5358</v>
+        <v>5346</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>5155</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="18.75" customHeight="1">
@@ -37087,7 +37119,7 @@
         <v>2233</v>
       </c>
       <c r="O83" s="17" t="s">
-        <v>5156</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -37101,7 +37133,7 @@
         <v>2236</v>
       </c>
       <c r="O84" s="17" t="s">
-        <v>5157</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -37115,7 +37147,7 @@
         <v>2239</v>
       </c>
       <c r="O86" s="19" t="s">
-        <v>5158</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -37129,7 +37161,7 @@
         <v>2239</v>
       </c>
       <c r="O87" s="19" t="s">
-        <v>5158</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -37157,7 +37189,7 @@
         <v>1051</v>
       </c>
       <c r="O89" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -37171,7 +37203,7 @@
         <v>1055</v>
       </c>
       <c r="O90" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -37199,7 +37231,7 @@
         <v>1081</v>
       </c>
       <c r="O92" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -37213,7 +37245,7 @@
         <v>1085</v>
       </c>
       <c r="O93" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -37227,7 +37259,7 @@
         <v>1089</v>
       </c>
       <c r="O94" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -37241,7 +37273,7 @@
         <v>1093</v>
       </c>
       <c r="O95" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -37255,7 +37287,7 @@
         <v>2251</v>
       </c>
       <c r="O96" s="19" t="s">
-        <v>5159</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -37269,7 +37301,7 @@
         <v>2254</v>
       </c>
       <c r="O97" s="19" t="s">
-        <v>5160</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -37283,7 +37315,7 @@
         <v>2257</v>
       </c>
       <c r="O98" s="19" t="s">
-        <v>5161</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -37297,7 +37329,7 @@
         <v>2260</v>
       </c>
       <c r="O99" s="19" t="s">
-        <v>5162</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -37311,7 +37343,7 @@
         <v>2263</v>
       </c>
       <c r="O100" s="19" t="s">
-        <v>5163</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -37325,7 +37357,7 @@
         <v>2266</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>5164</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="23.25" customHeight="1">
@@ -37339,7 +37371,7 @@
         <v>2269</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>5164</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="409.5">
@@ -37350,10 +37382,10 @@
         <v>2271</v>
       </c>
       <c r="M103" s="5" t="s">
-        <v>5339</v>
+        <v>5369</v>
       </c>
       <c r="O103" s="17" t="s">
-        <v>5165</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -37367,7 +37399,7 @@
         <v>2273</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>5109</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -37381,7 +37413,7 @@
         <v>2273</v>
       </c>
       <c r="O106" s="19" t="s">
-        <v>5109</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -37409,7 +37441,7 @@
         <v>1051</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -37423,7 +37455,7 @@
         <v>1055</v>
       </c>
       <c r="O109" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -37451,7 +37483,7 @@
         <v>1081</v>
       </c>
       <c r="O111" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -37465,7 +37497,7 @@
         <v>1085</v>
       </c>
       <c r="O112" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -37479,7 +37511,7 @@
         <v>1089</v>
       </c>
       <c r="O113" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -37493,7 +37525,7 @@
         <v>1093</v>
       </c>
       <c r="O114" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -37507,7 +37539,7 @@
         <v>2285</v>
       </c>
       <c r="O115" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -37521,7 +37553,7 @@
         <v>2288</v>
       </c>
       <c r="O116" s="19" t="s">
-        <v>5110</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -37535,7 +37567,7 @@
         <v>2291</v>
       </c>
       <c r="O117" s="19" t="s">
-        <v>5166</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -37549,7 +37581,7 @@
         <v>2294</v>
       </c>
       <c r="O118" s="19" t="s">
-        <v>5167</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -37563,7 +37595,7 @@
         <v>2297</v>
       </c>
       <c r="O119" s="19" t="s">
-        <v>5168</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="409.5">
@@ -37574,10 +37606,10 @@
         <v>2299</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>5333</v>
+        <v>5323</v>
       </c>
       <c r="O120" s="17" t="s">
-        <v>5169</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -37591,7 +37623,7 @@
         <v>2302</v>
       </c>
       <c r="O121" s="19" t="s">
-        <v>5111</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -37605,7 +37637,7 @@
         <v>2304</v>
       </c>
       <c r="O123" s="19" t="s">
-        <v>5112</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -37619,7 +37651,7 @@
         <v>2304</v>
       </c>
       <c r="O124" s="19" t="s">
-        <v>5112</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -37647,7 +37679,7 @@
         <v>1051</v>
       </c>
       <c r="O126" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -37661,7 +37693,7 @@
         <v>1055</v>
       </c>
       <c r="O127" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -37689,7 +37721,7 @@
         <v>1081</v>
       </c>
       <c r="O129" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -37703,7 +37735,7 @@
         <v>1085</v>
       </c>
       <c r="O130" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -37717,7 +37749,7 @@
         <v>1089</v>
       </c>
       <c r="O131" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -37731,7 +37763,7 @@
         <v>1093</v>
       </c>
       <c r="O132" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -37745,7 +37777,7 @@
         <v>2316</v>
       </c>
       <c r="O133" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -37759,7 +37791,7 @@
         <v>2319</v>
       </c>
       <c r="O134" s="19" t="s">
-        <v>5170</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -37773,7 +37805,7 @@
         <v>2322</v>
       </c>
       <c r="O135" s="19" t="s">
-        <v>5113</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="394.5" customHeight="1">
@@ -37784,10 +37816,10 @@
         <v>2324</v>
       </c>
       <c r="M136" s="5" t="s">
-        <v>5372</v>
+        <v>5360</v>
       </c>
       <c r="O136" s="17" t="s">
-        <v>5171</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -37801,7 +37833,7 @@
         <v>2327</v>
       </c>
       <c r="O137" s="19" t="s">
-        <v>5172</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.75" customHeight="1">
@@ -37815,7 +37847,7 @@
         <v>2330</v>
       </c>
       <c r="O138" t="s">
-        <v>5173</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="22.7" customHeight="1">
@@ -37846,7 +37878,7 @@
         <v>2337</v>
       </c>
       <c r="O141" s="19" t="s">
-        <v>5174</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -37860,7 +37892,7 @@
         <v>2337</v>
       </c>
       <c r="O142" s="19" t="s">
-        <v>5174</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -37888,7 +37920,7 @@
         <v>1051</v>
       </c>
       <c r="O144" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -37902,7 +37934,7 @@
         <v>1055</v>
       </c>
       <c r="O145" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -37930,7 +37962,7 @@
         <v>1081</v>
       </c>
       <c r="O147" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -37944,7 +37976,7 @@
         <v>1085</v>
       </c>
       <c r="O148" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -37958,7 +37990,7 @@
         <v>1089</v>
       </c>
       <c r="O149" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -37972,7 +38004,7 @@
         <v>1093</v>
       </c>
       <c r="O150" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -37986,7 +38018,7 @@
         <v>2349</v>
       </c>
       <c r="O151" t="s">
-        <v>5175</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -38000,7 +38032,7 @@
         <v>2352</v>
       </c>
       <c r="O152" t="s">
-        <v>5176</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -38014,7 +38046,7 @@
         <v>2355</v>
       </c>
       <c r="O153" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -38028,7 +38060,7 @@
         <v>2358</v>
       </c>
       <c r="O154" s="19" t="s">
-        <v>5108</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -38042,7 +38074,7 @@
         <v>2361</v>
       </c>
       <c r="O155" s="19" t="s">
-        <v>5177</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -38056,7 +38088,7 @@
         <v>2364</v>
       </c>
       <c r="O156" s="19" t="s">
-        <v>5178</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -38070,7 +38102,7 @@
         <v>2367</v>
       </c>
       <c r="O157" s="19" t="s">
-        <v>5179</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -38084,7 +38116,7 @@
         <v>2370</v>
       </c>
       <c r="O158" s="19" t="s">
-        <v>5179</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="409.5">
@@ -38095,10 +38127,10 @@
         <v>2372</v>
       </c>
       <c r="M159" s="5" t="s">
-        <v>5368</v>
+        <v>5356</v>
       </c>
       <c r="O159" s="17" t="s">
-        <v>5180</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -38140,7 +38172,7 @@
         <v>2382</v>
       </c>
       <c r="O163" s="19" t="s">
-        <v>5181</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -38154,7 +38186,7 @@
         <v>2382</v>
       </c>
       <c r="O164" s="19" t="s">
-        <v>5181</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -38182,7 +38214,7 @@
         <v>1051</v>
       </c>
       <c r="O166" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -38196,7 +38228,7 @@
         <v>1055</v>
       </c>
       <c r="O167" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -38224,7 +38256,7 @@
         <v>1081</v>
       </c>
       <c r="O169" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -38238,7 +38270,7 @@
         <v>1085</v>
       </c>
       <c r="O170" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -38252,7 +38284,7 @@
         <v>1089</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -38266,7 +38298,7 @@
         <v>1093</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="173" spans="1:15">
@@ -38280,7 +38312,7 @@
         <v>2394</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="174" spans="1:15">
@@ -38308,7 +38340,7 @@
         <v>2400</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>5110</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="176" spans="1:15">
@@ -38336,7 +38368,7 @@
         <v>2407</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>5182</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="178" spans="1:15">
@@ -38350,7 +38382,7 @@
         <v>2410</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>5183</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="179" spans="1:15" ht="409.5">
@@ -38361,10 +38393,10 @@
         <v>2412</v>
       </c>
       <c r="M179" s="5" t="s">
-        <v>5340</v>
+        <v>5329</v>
       </c>
       <c r="O179" s="17" t="s">
-        <v>5184</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="180" spans="1:15">
@@ -38434,7 +38466,7 @@
         <v>1051</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="186" spans="1:15">
@@ -38448,7 +38480,7 @@
         <v>1055</v>
       </c>
       <c r="O186" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="187" spans="1:15">
@@ -38476,7 +38508,7 @@
         <v>1081</v>
       </c>
       <c r="O188" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="189" spans="1:15">
@@ -38490,7 +38522,7 @@
         <v>1085</v>
       </c>
       <c r="O189" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="190" spans="1:15">
@@ -38504,7 +38536,7 @@
         <v>1089</v>
       </c>
       <c r="O190" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -38518,7 +38550,7 @@
         <v>1093</v>
       </c>
       <c r="O191" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="192" spans="1:15">
@@ -38532,7 +38564,7 @@
         <v>2431</v>
       </c>
       <c r="O192" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="193" spans="1:15">
@@ -38546,7 +38578,7 @@
         <v>2434</v>
       </c>
       <c r="O193" s="19" t="s">
-        <v>5108</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="194" spans="1:15">
@@ -38574,7 +38606,7 @@
         <v>2440</v>
       </c>
       <c r="O195" s="19" t="s">
-        <v>5114</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="196" spans="1:15">
@@ -38588,7 +38620,7 @@
         <v>2443</v>
       </c>
       <c r="O196" s="19" t="s">
-        <v>5185</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="197" spans="1:15">
@@ -38602,7 +38634,7 @@
         <v>2446</v>
       </c>
       <c r="O197" s="19" t="s">
-        <v>5115</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="198" spans="1:15" ht="17.649999999999999" customHeight="1">
@@ -38616,7 +38648,7 @@
         <v>2449</v>
       </c>
       <c r="O198" s="19" t="s">
-        <v>5116</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="199" spans="1:15">
@@ -38630,7 +38662,7 @@
         <v>2452</v>
       </c>
       <c r="O199" s="19" t="s">
-        <v>5186</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="200" spans="1:15">
@@ -38644,7 +38676,7 @@
         <v>2455</v>
       </c>
       <c r="O200" s="19" t="s">
-        <v>5187</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="201" spans="1:15">
@@ -38658,7 +38690,7 @@
         <v>2458</v>
       </c>
       <c r="O201" s="19" t="s">
-        <v>5188</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="202" spans="1:15" ht="409.5">
@@ -38669,10 +38701,10 @@
         <v>2460</v>
       </c>
       <c r="M202" s="5" t="s">
-        <v>5341</v>
+        <v>5330</v>
       </c>
       <c r="O202" s="17" t="s">
-        <v>5189</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="203" spans="1:15">
@@ -38686,7 +38718,7 @@
         <v>2463</v>
       </c>
       <c r="O203" s="19" t="s">
-        <v>5117</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="204" spans="1:15">
@@ -38700,7 +38732,7 @@
         <v>2466</v>
       </c>
       <c r="O204" s="19" t="s">
-        <v>5190</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="206" spans="1:15">
@@ -38756,7 +38788,7 @@
         <v>1051</v>
       </c>
       <c r="O209" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="210" spans="1:15">
@@ -38770,7 +38802,7 @@
         <v>1055</v>
       </c>
       <c r="O210" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="211" spans="1:15">
@@ -38798,7 +38830,7 @@
         <v>1081</v>
       </c>
       <c r="O212" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="213" spans="1:15">
@@ -38812,7 +38844,7 @@
         <v>1085</v>
       </c>
       <c r="O213" s="19" t="s">
-        <v>5139</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="214" spans="1:15">
@@ -38826,7 +38858,7 @@
         <v>1089</v>
       </c>
       <c r="O214" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="215" spans="1:15">
@@ -38840,7 +38872,7 @@
         <v>1093</v>
       </c>
       <c r="O215" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="216" spans="1:15">
@@ -38854,7 +38886,7 @@
         <v>2482</v>
       </c>
       <c r="O216" s="19" t="s">
-        <v>5106</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="217" spans="1:15">
@@ -38882,7 +38914,7 @@
         <v>2489</v>
       </c>
       <c r="O218" s="19" t="s">
-        <v>5191</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="219" spans="1:15">
@@ -38896,7 +38928,7 @@
         <v>2492</v>
       </c>
       <c r="O219" s="19" t="s">
-        <v>5192</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="220" spans="1:15">
@@ -38924,7 +38956,7 @@
         <v>2499</v>
       </c>
       <c r="O221" s="19" t="s">
-        <v>5193</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="222" spans="1:15" ht="409.5">
@@ -38935,10 +38967,10 @@
         <v>2501</v>
       </c>
       <c r="M222" s="5" t="s">
-        <v>5369</v>
+        <v>5357</v>
       </c>
       <c r="O222" s="17" t="s">
-        <v>5194</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="223" spans="1:15">
@@ -38952,7 +38984,7 @@
         <v>2503</v>
       </c>
       <c r="O223" s="19" t="s">
-        <v>5118</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="225" spans="1:15">
@@ -39008,7 +39040,7 @@
         <v>1051</v>
       </c>
       <c r="O228" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="229" spans="1:15">
@@ -39022,7 +39054,7 @@
         <v>1055</v>
       </c>
       <c r="O229" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="230" spans="1:15">
@@ -39050,7 +39082,7 @@
         <v>1081</v>
       </c>
       <c r="O231" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="232" spans="1:15">
@@ -39064,7 +39096,7 @@
         <v>1085</v>
       </c>
       <c r="O232" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="233" spans="1:15">
@@ -39078,7 +39110,7 @@
         <v>1089</v>
       </c>
       <c r="O233" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="234" spans="1:15">
@@ -39092,7 +39124,7 @@
         <v>1093</v>
       </c>
       <c r="O234" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="235" spans="1:15">
@@ -39106,7 +39138,7 @@
         <v>1455</v>
       </c>
       <c r="O235" s="19" t="s">
-        <v>5195</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="236" spans="1:15">
@@ -39120,7 +39152,7 @@
         <v>2521</v>
       </c>
       <c r="O236" s="19" t="s">
-        <v>5196</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="237" spans="1:15">
@@ -39134,7 +39166,7 @@
         <v>2524</v>
       </c>
       <c r="O237" s="19" t="s">
-        <v>5197</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="238" spans="1:15">
@@ -39148,7 +39180,7 @@
         <v>2527</v>
       </c>
       <c r="O238" s="19" t="s">
-        <v>5198</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="239" spans="1:15">
@@ -39162,7 +39194,7 @@
         <v>2530</v>
       </c>
       <c r="O239" s="19" t="s">
-        <v>5199</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="240" spans="1:15">
@@ -39176,7 +39208,7 @@
         <v>2533</v>
       </c>
       <c r="O240" s="21" t="s">
-        <v>5200</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="241" spans="1:15">
@@ -39190,7 +39222,7 @@
         <v>2536</v>
       </c>
       <c r="O241" s="19" t="s">
-        <v>5201</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="356.25">
@@ -39201,10 +39233,10 @@
         <v>2538</v>
       </c>
       <c r="M242" s="5" t="s">
-        <v>5342</v>
+        <v>5331</v>
       </c>
       <c r="O242" s="17" t="s">
-        <v>5202</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="243" spans="1:15">
@@ -39218,7 +39250,7 @@
         <v>2541</v>
       </c>
       <c r="O243" s="17" t="s">
-        <v>5203</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="244" spans="1:15">
@@ -39232,7 +39264,7 @@
         <v>2544</v>
       </c>
       <c r="O244" s="17" t="s">
-        <v>5204</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="246" spans="1:15">
@@ -39288,7 +39320,7 @@
         <v>1051</v>
       </c>
       <c r="O249" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="250" spans="1:15">
@@ -39302,7 +39334,7 @@
         <v>1055</v>
       </c>
       <c r="O250" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="251" spans="1:15">
@@ -39330,7 +39362,7 @@
         <v>1081</v>
       </c>
       <c r="O252" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="253" spans="1:15">
@@ -39344,7 +39376,7 @@
         <v>1085</v>
       </c>
       <c r="O253" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="254" spans="1:15">
@@ -39358,7 +39390,7 @@
         <v>1089</v>
       </c>
       <c r="O254" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="255" spans="1:15">
@@ -39372,7 +39404,7 @@
         <v>1093</v>
       </c>
       <c r="O255" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="256" spans="1:15">
@@ -39386,7 +39418,7 @@
         <v>2560</v>
       </c>
       <c r="O256" s="19" t="s">
-        <v>5205</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="257" spans="1:15">
@@ -39400,7 +39432,7 @@
         <v>2563</v>
       </c>
       <c r="O257" s="19" t="s">
-        <v>5206</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="258" spans="1:15" ht="18" customHeight="1">
@@ -39414,7 +39446,7 @@
         <v>2566</v>
       </c>
       <c r="O258" s="19" t="s">
-        <v>5207</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="259" spans="1:15">
@@ -39428,7 +39460,7 @@
         <v>2569</v>
       </c>
       <c r="O259" s="19" t="s">
-        <v>5208</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="260" spans="1:15">
@@ -39456,7 +39488,7 @@
         <v>2576</v>
       </c>
       <c r="O261" s="19" t="s">
-        <v>5209</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="262" spans="1:15" ht="409.5">
@@ -39467,10 +39499,10 @@
         <v>2578</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>5343</v>
+        <v>5332</v>
       </c>
       <c r="O262" s="17" t="s">
-        <v>5210</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="263" spans="1:15">
@@ -39484,7 +39516,7 @@
         <v>2581</v>
       </c>
       <c r="O263" s="19" t="s">
-        <v>5119</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="265" spans="1:15">
@@ -39540,7 +39572,7 @@
         <v>1051</v>
       </c>
       <c r="O268" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="269" spans="1:15">
@@ -39554,7 +39586,7 @@
         <v>1055</v>
       </c>
       <c r="O269" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="270" spans="1:15">
@@ -39582,7 +39614,7 @@
         <v>1081</v>
       </c>
       <c r="O271" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="272" spans="1:15">
@@ -39596,7 +39628,7 @@
         <v>1085</v>
       </c>
       <c r="O272" s="19" t="s">
-        <v>5139</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="273" spans="1:15">
@@ -39610,7 +39642,7 @@
         <v>1089</v>
       </c>
       <c r="O273" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="274" spans="1:15">
@@ -39624,7 +39656,7 @@
         <v>1093</v>
       </c>
       <c r="O274" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="275" spans="1:15">
@@ -39666,7 +39698,7 @@
         <v>2602</v>
       </c>
       <c r="O277" s="19" t="s">
-        <v>5211</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="278" spans="1:15">
@@ -39680,7 +39712,7 @@
         <v>2605</v>
       </c>
       <c r="O278" t="s">
-        <v>5212</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="279" spans="1:15">
@@ -39694,7 +39726,7 @@
         <v>2608</v>
       </c>
       <c r="O279" s="19" t="s">
-        <v>5213</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="280" spans="1:15" ht="375">
@@ -39705,10 +39737,10 @@
         <v>2610</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>5344</v>
+        <v>5333</v>
       </c>
       <c r="O280" s="17" t="s">
-        <v>5214</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="281" spans="1:15">
@@ -39722,7 +39754,7 @@
         <v>2613</v>
       </c>
       <c r="O281" s="19" t="s">
-        <v>5120</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="283" spans="1:15">
@@ -39736,7 +39768,7 @@
         <v>2616</v>
       </c>
       <c r="O283" s="19" t="s">
-        <v>5215</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="284" spans="1:15">
@@ -39750,7 +39782,7 @@
         <v>2616</v>
       </c>
       <c r="O284" s="19" t="s">
-        <v>5215</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="285" spans="1:15">
@@ -39778,7 +39810,7 @@
         <v>1051</v>
       </c>
       <c r="O286" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="287" spans="1:15">
@@ -39792,7 +39824,7 @@
         <v>1055</v>
       </c>
       <c r="O287" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="288" spans="1:15">
@@ -39820,7 +39852,7 @@
         <v>1081</v>
       </c>
       <c r="O289" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="290" spans="1:15">
@@ -39834,7 +39866,7 @@
         <v>1085</v>
       </c>
       <c r="O290" s="19" t="s">
-        <v>5139</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="291" spans="1:15">
@@ -39848,7 +39880,7 @@
         <v>1089</v>
       </c>
       <c r="O291" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="292" spans="1:15">
@@ -39862,7 +39894,7 @@
         <v>1093</v>
       </c>
       <c r="O292" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="293" spans="1:15">
@@ -39876,7 +39908,7 @@
         <v>2628</v>
       </c>
       <c r="O293" s="19" t="s">
-        <v>5216</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="294" spans="1:15">
@@ -39890,7 +39922,7 @@
         <v>2631</v>
       </c>
       <c r="O294" s="19" t="s">
-        <v>5217</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="295" spans="1:15">
@@ -39904,7 +39936,7 @@
         <v>2634</v>
       </c>
       <c r="O295" s="19" t="s">
-        <v>5218</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="296" spans="1:15">
@@ -39918,7 +39950,7 @@
         <v>2637</v>
       </c>
       <c r="O296" s="19" t="s">
-        <v>5219</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="297" spans="1:15">
@@ -39932,7 +39964,7 @@
         <v>2640</v>
       </c>
       <c r="O297" s="19" t="s">
-        <v>5220</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="298" spans="1:15">
@@ -39946,7 +39978,7 @@
         <v>2643</v>
       </c>
       <c r="O298" s="19" t="s">
-        <v>5221</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="299" spans="1:15" ht="17.649999999999999" customHeight="1">
@@ -39960,7 +39992,7 @@
         <v>2646</v>
       </c>
       <c r="O299" s="19" t="s">
-        <v>5222</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="300" spans="1:15">
@@ -39974,7 +40006,7 @@
         <v>2649</v>
       </c>
       <c r="O300" s="19" t="s">
-        <v>5223</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="301" spans="1:15">
@@ -39988,7 +40020,7 @@
         <v>2652</v>
       </c>
       <c r="O301" s="19" t="s">
-        <v>5224</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="302" spans="1:15">
@@ -40002,7 +40034,7 @@
         <v>2654</v>
       </c>
       <c r="O302" s="19" t="s">
-        <v>5224</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="303" spans="1:15" ht="409.5">
@@ -40013,10 +40045,10 @@
         <v>2656</v>
       </c>
       <c r="M303" s="5" t="s">
-        <v>5345</v>
+        <v>5334</v>
       </c>
       <c r="O303" s="17" t="s">
-        <v>5225</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="304" spans="1:15">
@@ -40044,7 +40076,7 @@
         <v>2663</v>
       </c>
       <c r="O305" s="19" t="s">
-        <v>5121</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="306" spans="1:15">
@@ -40058,7 +40090,7 @@
         <v>2666</v>
       </c>
       <c r="O306" s="19" t="s">
-        <v>5226</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="308" spans="1:15">
@@ -40072,7 +40104,7 @@
         <v>2668</v>
       </c>
       <c r="O308" s="19" t="s">
-        <v>5227</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="309" spans="1:15">
@@ -40086,7 +40118,7 @@
         <v>2668</v>
       </c>
       <c r="O309" s="19" t="s">
-        <v>5227</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="310" spans="1:15">
@@ -40114,7 +40146,7 @@
         <v>1051</v>
       </c>
       <c r="O311" s="19" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="312" spans="1:15">
@@ -40128,7 +40160,7 @@
         <v>1055</v>
       </c>
       <c r="O312" s="19" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="313" spans="1:15">
@@ -40156,7 +40188,7 @@
         <v>1081</v>
       </c>
       <c r="O314" s="19" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="315" spans="1:15">
@@ -40170,7 +40202,7 @@
         <v>1085</v>
       </c>
       <c r="O315" s="19" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="316" spans="1:15">
@@ -40184,7 +40216,7 @@
         <v>1089</v>
       </c>
       <c r="O316" s="19" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="317" spans="1:15">
@@ -40198,7 +40230,7 @@
         <v>1093</v>
       </c>
       <c r="O317" s="19" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="318" spans="1:15">
@@ -40212,7 +40244,7 @@
         <v>2680</v>
       </c>
       <c r="O318" s="19" t="s">
-        <v>5228</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="319" spans="1:15">
@@ -40226,7 +40258,7 @@
         <v>2683</v>
       </c>
       <c r="O319" s="19" t="s">
-        <v>5229</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="320" spans="1:15">
@@ -40240,7 +40272,7 @@
         <v>2686</v>
       </c>
       <c r="O320" s="19" t="s">
-        <v>5230</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="321" spans="1:15">
@@ -40254,7 +40286,7 @@
         <v>2689</v>
       </c>
       <c r="O321" s="19" t="s">
-        <v>5231</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="322" spans="1:15">
@@ -40268,7 +40300,7 @@
         <v>2692</v>
       </c>
       <c r="O322" s="19" t="s">
-        <v>5232</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="323" spans="1:15">
@@ -40282,7 +40314,7 @@
         <v>2695</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>5233</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="324" spans="1:15">
@@ -40296,7 +40328,7 @@
         <v>2698</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>5234</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="325" spans="1:15">
@@ -40310,7 +40342,7 @@
         <v>2701</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>5235</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="326" spans="1:15" ht="18" customHeight="1">
@@ -40324,7 +40356,7 @@
         <v>2704</v>
       </c>
       <c r="O326" s="19" t="s">
-        <v>5236</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="327" spans="1:15" ht="20.25" customHeight="1">
@@ -40338,7 +40370,7 @@
         <v>2707</v>
       </c>
       <c r="O327" s="19" t="s">
-        <v>5237</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="328" spans="1:15">
@@ -40352,7 +40384,7 @@
         <v>2710</v>
       </c>
       <c r="O328" s="19" t="s">
-        <v>5238</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="329" spans="1:15">
@@ -40366,7 +40398,7 @@
         <v>2713</v>
       </c>
       <c r="O329" s="19" t="s">
-        <v>5239</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="330" spans="1:15">
@@ -40380,7 +40412,7 @@
         <v>2716</v>
       </c>
       <c r="O330" s="19" t="s">
-        <v>5240</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="331" spans="1:15">
@@ -40394,7 +40426,7 @@
         <v>2719</v>
       </c>
       <c r="O331" s="19" t="s">
-        <v>5241</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="332" spans="1:15" ht="409.5">
@@ -40405,10 +40437,10 @@
         <v>2721</v>
       </c>
       <c r="M332" s="5" t="s">
-        <v>5346</v>
+        <v>5335</v>
       </c>
       <c r="O332" s="17" t="s">
-        <v>5242</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="333" spans="1:15" ht="37.5">
@@ -40422,7 +40454,7 @@
         <v>2724</v>
       </c>
       <c r="O333" s="17" t="s">
-        <v>5243</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="334" spans="1:15" ht="37.5">
@@ -40436,7 +40468,7 @@
         <v>2727</v>
       </c>
       <c r="O334" s="17" t="s">
-        <v>5244</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="337" spans="1:15">
@@ -40450,7 +40482,7 @@
         <v>2730</v>
       </c>
       <c r="O337" s="17" t="s">
-        <v>5245</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="338" spans="1:15">
@@ -40464,7 +40496,7 @@
         <v>2730</v>
       </c>
       <c r="O338" s="17" t="s">
-        <v>5245</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="339" spans="1:15">
@@ -40492,7 +40524,7 @@
         <v>1051</v>
       </c>
       <c r="O340" s="17" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="341" spans="1:15">
@@ -40506,7 +40538,7 @@
         <v>1055</v>
       </c>
       <c r="O341" s="17" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="342" spans="1:15">
@@ -40534,7 +40566,7 @@
         <v>1081</v>
       </c>
       <c r="O343" s="17" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="344" spans="1:15">
@@ -40548,7 +40580,7 @@
         <v>1085</v>
       </c>
       <c r="O344" s="17" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="345" spans="1:15">
@@ -40562,7 +40594,7 @@
         <v>1089</v>
       </c>
       <c r="O345" s="17" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="346" spans="1:15">
@@ -40576,7 +40608,7 @@
         <v>1093</v>
       </c>
       <c r="O346" s="17" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="347" spans="1:15">
@@ -40590,7 +40622,7 @@
         <v>2741</v>
       </c>
       <c r="O347" s="17" t="s">
-        <v>5246</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="348" spans="1:15">
@@ -40604,7 +40636,7 @@
         <v>2744</v>
       </c>
       <c r="O348" s="17" t="s">
-        <v>5247</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="349" spans="1:15">
@@ -40618,7 +40650,7 @@
         <v>2747</v>
       </c>
       <c r="O349" s="17" t="s">
-        <v>5248</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="350" spans="1:15">
@@ -40632,7 +40664,7 @@
         <v>2750</v>
       </c>
       <c r="O350" s="17" t="s">
-        <v>5249</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="351" spans="1:15" ht="18.95" customHeight="1">
@@ -40646,7 +40678,7 @@
         <v>2753</v>
       </c>
       <c r="O351" s="17" t="s">
-        <v>5250</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="352" spans="1:15">
@@ -40660,7 +40692,7 @@
         <v>2756</v>
       </c>
       <c r="O352" s="17" t="s">
-        <v>5251</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="353" spans="1:15">
@@ -40688,7 +40720,7 @@
         <v>2763</v>
       </c>
       <c r="O354" s="17" t="s">
-        <v>5252</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="355" spans="1:15" ht="409.5">
@@ -40699,10 +40731,10 @@
         <v>2765</v>
       </c>
       <c r="M355" s="5" t="s">
-        <v>5347</v>
+        <v>5336</v>
       </c>
       <c r="O355" s="5" t="s">
-        <v>5253</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="356" spans="1:15">
@@ -40730,7 +40762,7 @@
         <v>2771</v>
       </c>
       <c r="O358" s="5" t="s">
-        <v>5254</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="359" spans="1:15">
@@ -40744,7 +40776,7 @@
         <v>2771</v>
       </c>
       <c r="O359" s="5" t="s">
-        <v>5254</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="360" spans="1:15">
@@ -40772,7 +40804,7 @@
         <v>1051</v>
       </c>
       <c r="O361" s="5" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="362" spans="1:15">
@@ -40786,7 +40818,7 @@
         <v>1055</v>
       </c>
       <c r="O362" s="5" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="363" spans="1:15">
@@ -40814,7 +40846,7 @@
         <v>1081</v>
       </c>
       <c r="O364" s="5" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="365" spans="1:15">
@@ -40828,7 +40860,7 @@
         <v>1085</v>
       </c>
       <c r="O365" s="5" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="366" spans="1:15">
@@ -40842,7 +40874,7 @@
         <v>1089</v>
       </c>
       <c r="O366" s="5" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="367" spans="1:15">
@@ -40856,7 +40888,7 @@
         <v>1093</v>
       </c>
       <c r="O367" s="5" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="368" spans="1:15">
@@ -40870,7 +40902,7 @@
         <v>2783</v>
       </c>
       <c r="O368" s="5" t="s">
-        <v>5255</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="369" spans="1:15">
@@ -40884,7 +40916,7 @@
         <v>2786</v>
       </c>
       <c r="O369" s="5" t="s">
-        <v>5256</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="370" spans="1:15">
@@ -40898,7 +40930,7 @@
         <v>2789</v>
       </c>
       <c r="O370" s="5" t="s">
-        <v>5257</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="371" spans="1:15" ht="18" customHeight="1">
@@ -40912,7 +40944,7 @@
         <v>2792</v>
       </c>
       <c r="O371" s="5" t="s">
-        <v>5258</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="372" spans="1:15">
@@ -40926,7 +40958,7 @@
         <v>2795</v>
       </c>
       <c r="O372" s="5" t="s">
-        <v>5259</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="373" spans="1:15">
@@ -40940,7 +40972,7 @@
         <v>2798</v>
       </c>
       <c r="O373" s="5" t="s">
-        <v>5260</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="374" spans="1:15">
@@ -40954,7 +40986,7 @@
         <v>2801</v>
       </c>
       <c r="O374" s="5" t="s">
-        <v>5261</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="375" spans="1:15" ht="375">
@@ -40965,10 +40997,10 @@
         <v>2803</v>
       </c>
       <c r="M375" s="5" t="s">
-        <v>5363</v>
+        <v>5351</v>
       </c>
       <c r="O375" s="5" t="s">
-        <v>5262</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="376" spans="1:15">
@@ -40982,7 +41014,7 @@
         <v>2806</v>
       </c>
       <c r="O376" s="5" t="s">
-        <v>5263</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="378" spans="1:15">
@@ -40996,7 +41028,7 @@
         <v>2808</v>
       </c>
       <c r="O378" t="s">
-        <v>5122</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="379" spans="1:15">
@@ -41010,7 +41042,7 @@
         <v>2808</v>
       </c>
       <c r="O379" t="s">
-        <v>5122</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="380" spans="1:15">
@@ -41038,7 +41070,7 @@
         <v>1051</v>
       </c>
       <c r="O381" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="382" spans="1:15">
@@ -41052,7 +41084,7 @@
         <v>1055</v>
       </c>
       <c r="O382" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="383" spans="1:15">
@@ -41080,7 +41112,7 @@
         <v>1081</v>
       </c>
       <c r="O384" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="385" spans="1:15">
@@ -41094,7 +41126,7 @@
         <v>1085</v>
       </c>
       <c r="O385" t="s">
-        <v>5139</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="386" spans="1:15">
@@ -41108,7 +41140,7 @@
         <v>1089</v>
       </c>
       <c r="O386" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="387" spans="1:15">
@@ -41122,7 +41154,7 @@
         <v>1093</v>
       </c>
       <c r="O387" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="388" spans="1:15">
@@ -41178,7 +41210,7 @@
         <v>2832</v>
       </c>
       <c r="O391" t="s">
-        <v>5123</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="392" spans="1:15">
@@ -41192,7 +41224,7 @@
         <v>2835</v>
       </c>
       <c r="O392" t="s">
-        <v>5124</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="393" spans="1:15">
@@ -41206,7 +41238,7 @@
         <v>2838</v>
       </c>
       <c r="O393" t="s">
-        <v>5264</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="394" spans="1:15">
@@ -41220,7 +41252,7 @@
         <v>2841</v>
       </c>
       <c r="O394" t="s">
-        <v>5265</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="395" spans="1:15">
@@ -41234,7 +41266,7 @@
         <v>2844</v>
       </c>
       <c r="O395" t="s">
-        <v>5266</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="396" spans="1:15">
@@ -41248,7 +41280,7 @@
         <v>2847</v>
       </c>
       <c r="O396" t="s">
-        <v>5267</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="397" spans="1:15">
@@ -41262,7 +41294,7 @@
         <v>2850</v>
       </c>
       <c r="O397" t="s">
-        <v>5268</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="398" spans="1:15">
@@ -41276,7 +41308,7 @@
         <v>2853</v>
       </c>
       <c r="O398" t="s">
-        <v>5269</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="399" spans="1:15">
@@ -41290,7 +41322,7 @@
         <v>2856</v>
       </c>
       <c r="O399" t="s">
-        <v>5125</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="400" spans="1:15">
@@ -41304,7 +41336,7 @@
         <v>2859</v>
       </c>
       <c r="O400" t="s">
-        <v>5126</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="401" spans="1:15">
@@ -41332,7 +41364,7 @@
         <v>2866</v>
       </c>
       <c r="O402" t="s">
-        <v>5270</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="403" spans="1:15" ht="409.5">
@@ -41343,7 +41375,7 @@
         <v>2868</v>
       </c>
       <c r="M403" s="5" t="s">
-        <v>5373</v>
+        <v>5361</v>
       </c>
       <c r="O403" s="5" t="s">
         <v>2869</v>
@@ -41388,7 +41420,7 @@
         <v>2879</v>
       </c>
       <c r="O407" t="s">
-        <v>5127</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="408" spans="1:15" ht="378.75" customHeight="1">
@@ -41399,10 +41431,10 @@
         <v>2881</v>
       </c>
       <c r="M408" s="5" t="s">
-        <v>5366</v>
+        <v>5354</v>
       </c>
       <c r="O408" s="5" t="s">
-        <v>5367</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="409" spans="1:15">
@@ -41416,7 +41448,7 @@
         <v>2884</v>
       </c>
       <c r="O409" t="s">
-        <v>5271</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="410" spans="1:15">
@@ -41430,7 +41462,7 @@
         <v>2887</v>
       </c>
       <c r="O410" t="s">
-        <v>5272</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="411" spans="1:15">
@@ -41444,7 +41476,7 @@
         <v>2890</v>
       </c>
       <c r="O411" t="s">
-        <v>5273</v>
+        <v>5265</v>
       </c>
     </row>
     <row r="412" spans="1:15">
@@ -41458,7 +41490,7 @@
         <v>2893</v>
       </c>
       <c r="O412" t="s">
-        <v>5274</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="414" spans="1:15">
@@ -41514,7 +41546,7 @@
         <v>1051</v>
       </c>
       <c r="O417" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="418" spans="1:15">
@@ -41528,7 +41560,7 @@
         <v>1055</v>
       </c>
       <c r="O418" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="419" spans="1:15">
@@ -41556,7 +41588,7 @@
         <v>1081</v>
       </c>
       <c r="O420" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="421" spans="1:15">
@@ -41570,7 +41602,7 @@
         <v>1085</v>
       </c>
       <c r="O421" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="422" spans="1:15">
@@ -41584,7 +41616,7 @@
         <v>1089</v>
       </c>
       <c r="O422" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="423" spans="1:15">
@@ -41598,7 +41630,7 @@
         <v>1093</v>
       </c>
       <c r="O423" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="424" spans="1:15">
@@ -41612,7 +41644,7 @@
         <v>2909</v>
       </c>
       <c r="O424" t="s">
-        <v>5275</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="425" spans="1:15">
@@ -41626,7 +41658,7 @@
         <v>2912</v>
       </c>
       <c r="O425" t="s">
-        <v>5276</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="426" spans="1:15">
@@ -41640,7 +41672,7 @@
         <v>2915</v>
       </c>
       <c r="O426" t="s">
-        <v>5277</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="427" spans="1:15">
@@ -41654,7 +41686,7 @@
         <v>2918</v>
       </c>
       <c r="O427" t="s">
-        <v>5278</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="428" spans="1:15">
@@ -41668,7 +41700,7 @@
         <v>2921</v>
       </c>
       <c r="O428" t="s">
-        <v>5279</v>
+        <v>5271</v>
       </c>
     </row>
     <row r="429" spans="1:15">
@@ -41682,7 +41714,7 @@
         <v>2924</v>
       </c>
       <c r="O429" t="s">
-        <v>5280</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="430" spans="1:15" ht="393.75">
@@ -41693,10 +41725,10 @@
         <v>2926</v>
       </c>
       <c r="M430" s="5" t="s">
-        <v>5374</v>
+        <v>5362</v>
       </c>
       <c r="O430" s="5" t="s">
-        <v>5281</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="432" spans="1:15">
@@ -41710,7 +41742,7 @@
         <v>2928</v>
       </c>
       <c r="O432" t="s">
-        <v>5128</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="433" spans="1:15">
@@ -41724,7 +41756,7 @@
         <v>2928</v>
       </c>
       <c r="O433" t="s">
-        <v>5128</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="434" spans="1:15">
@@ -41752,7 +41784,7 @@
         <v>1051</v>
       </c>
       <c r="O435" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="436" spans="1:15">
@@ -41766,7 +41798,7 @@
         <v>1055</v>
       </c>
       <c r="O436" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="437" spans="1:15">
@@ -41794,7 +41826,7 @@
         <v>1081</v>
       </c>
       <c r="O438" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="439" spans="1:15">
@@ -41808,7 +41840,7 @@
         <v>1085</v>
       </c>
       <c r="O439" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="440" spans="1:15">
@@ -41822,7 +41854,7 @@
         <v>1089</v>
       </c>
       <c r="O440" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="441" spans="1:15">
@@ -41836,7 +41868,7 @@
         <v>1093</v>
       </c>
       <c r="O441" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="442" spans="1:15">
@@ -41850,7 +41882,7 @@
         <v>2940</v>
       </c>
       <c r="O442" t="s">
-        <v>5282</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="443" spans="1:15">
@@ -41864,7 +41896,7 @@
         <v>2943</v>
       </c>
       <c r="O443" t="s">
-        <v>5283</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="444" spans="1:15">
@@ -41878,7 +41910,7 @@
         <v>2946</v>
       </c>
       <c r="O444" t="s">
-        <v>5284</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="445" spans="1:15">
@@ -41892,7 +41924,7 @@
         <v>2949</v>
       </c>
       <c r="O445" t="s">
-        <v>5285</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="446" spans="1:15">
@@ -41906,7 +41938,7 @@
         <v>2952</v>
       </c>
       <c r="O446" t="s">
-        <v>5286</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="447" spans="1:15">
@@ -41920,7 +41952,7 @@
         <v>2955</v>
       </c>
       <c r="O447" t="s">
-        <v>5287</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="448" spans="1:15">
@@ -41934,7 +41966,7 @@
         <v>2958</v>
       </c>
       <c r="O448" t="s">
-        <v>5288</v>
+        <v>5280</v>
       </c>
     </row>
     <row r="449" spans="1:15" ht="21" customHeight="1">
@@ -41948,7 +41980,7 @@
         <v>2961</v>
       </c>
       <c r="O449" t="s">
-        <v>5289</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="450" spans="1:15" ht="393.75">
@@ -41959,10 +41991,10 @@
         <v>2963</v>
       </c>
       <c r="M450" s="5" t="s">
-        <v>5364</v>
+        <v>5352</v>
       </c>
       <c r="O450" s="5" t="s">
-        <v>5290</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="451" spans="1:15">
@@ -41976,7 +42008,7 @@
         <v>2966</v>
       </c>
       <c r="O451" t="s">
-        <v>5291</v>
+        <v>5283</v>
       </c>
     </row>
     <row r="453" spans="1:15">
@@ -42032,7 +42064,7 @@
         <v>1051</v>
       </c>
       <c r="O456" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="457" spans="1:15">
@@ -42046,7 +42078,7 @@
         <v>1055</v>
       </c>
       <c r="O457" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="458" spans="1:15">
@@ -42074,7 +42106,7 @@
         <v>1081</v>
       </c>
       <c r="O459" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="460" spans="1:15">
@@ -42088,7 +42120,7 @@
         <v>1085</v>
       </c>
       <c r="O460" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="461" spans="1:15">
@@ -42102,7 +42134,7 @@
         <v>1089</v>
       </c>
       <c r="O461" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="462" spans="1:15">
@@ -42116,7 +42148,7 @@
         <v>1093</v>
       </c>
       <c r="O462" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="463" spans="1:15">
@@ -42130,7 +42162,7 @@
         <v>2981</v>
       </c>
       <c r="O463" t="s">
-        <v>5292</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="464" spans="1:15">
@@ -42144,7 +42176,7 @@
         <v>2984</v>
       </c>
       <c r="O464" t="s">
-        <v>5293</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="465" spans="1:15">
@@ -42158,7 +42190,7 @@
         <v>2987</v>
       </c>
       <c r="O465" t="s">
-        <v>5294</v>
+        <v>5286</v>
       </c>
     </row>
     <row r="466" spans="1:15" ht="21.75" customHeight="1">
@@ -42172,7 +42204,7 @@
         <v>2990</v>
       </c>
       <c r="O466" t="s">
-        <v>5295</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="467" spans="1:15" ht="375">
@@ -42183,10 +42215,10 @@
         <v>2992</v>
       </c>
       <c r="M467" s="5" t="s">
-        <v>5348</v>
+        <v>5363</v>
       </c>
       <c r="O467" s="5" t="s">
-        <v>5296</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="468" spans="1:15">
@@ -42200,7 +42232,7 @@
         <v>2995</v>
       </c>
       <c r="O468" t="s">
-        <v>5297</v>
+        <v>5289</v>
       </c>
     </row>
     <row r="469" spans="1:15" ht="20.25" customHeight="1"/>
@@ -42215,7 +42247,7 @@
         <v>2997</v>
       </c>
       <c r="O470" t="s">
-        <v>5298</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="471" spans="1:15">
@@ -42229,7 +42261,7 @@
         <v>2997</v>
       </c>
       <c r="O471" t="s">
-        <v>5298</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="472" spans="1:15">
@@ -42257,7 +42289,7 @@
         <v>1051</v>
       </c>
       <c r="O473" t="s">
-        <v>5132</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="474" spans="1:15">
@@ -42271,7 +42303,7 @@
         <v>1055</v>
       </c>
       <c r="O474" t="s">
-        <v>5133</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="475" spans="1:15">
@@ -42299,7 +42331,7 @@
         <v>1081</v>
       </c>
       <c r="O476" t="s">
-        <v>5134</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="477" spans="1:15">
@@ -42313,7 +42345,7 @@
         <v>1085</v>
       </c>
       <c r="O477" t="s">
-        <v>5135</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="478" spans="1:15">
@@ -42327,7 +42359,7 @@
         <v>1089</v>
       </c>
       <c r="O478" t="s">
-        <v>5136</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="479" spans="1:15">
@@ -42341,7 +42373,7 @@
         <v>1093</v>
       </c>
       <c r="O479" t="s">
-        <v>5137</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="480" spans="1:15">
@@ -42355,7 +42387,7 @@
         <v>3008</v>
       </c>
       <c r="O480" t="s">
-        <v>5299</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="481" spans="1:15">
@@ -42369,7 +42401,7 @@
         <v>3011</v>
       </c>
       <c r="O481" t="s">
-        <v>5300</v>
+        <v>5292</v>
       </c>
     </row>
     <row r="482" spans="1:15">
@@ -42383,7 +42415,7 @@
         <v>3014</v>
       </c>
       <c r="O482" t="s">
-        <v>5129</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="483" spans="1:15">
@@ -42397,7 +42429,7 @@
         <v>3017</v>
       </c>
       <c r="O483" t="s">
-        <v>5301</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="484" spans="1:15">
@@ -42411,7 +42443,7 @@
         <v>3020</v>
       </c>
       <c r="O484" t="s">
-        <v>5302</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="485" spans="1:15">
@@ -42425,7 +42457,7 @@
         <v>3023</v>
       </c>
       <c r="O485" t="s">
-        <v>5303</v>
+        <v>5295</v>
       </c>
     </row>
     <row r="486" spans="1:15">
@@ -42439,7 +42471,7 @@
         <v>1951</v>
       </c>
       <c r="O486" t="s">
-        <v>5304</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="487" spans="1:15">
@@ -42453,7 +42485,7 @@
         <v>1967</v>
       </c>
       <c r="O487" t="s">
-        <v>5305</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="488" spans="1:15">
@@ -42481,7 +42513,7 @@
         <v>3033</v>
       </c>
       <c r="O489" t="s">
-        <v>5306</v>
+        <v>5298</v>
       </c>
     </row>
     <row r="490" spans="1:15" ht="409.5">
@@ -42492,10 +42524,10 @@
         <v>3035</v>
       </c>
       <c r="M490" s="5" t="s">
-        <v>5370</v>
+        <v>5358</v>
       </c>
       <c r="O490" s="5" t="s">
-        <v>5307</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="491" spans="1:15">
@@ -42509,7 +42541,7 @@
         <v>3038</v>
       </c>
       <c r="O491" t="s">
-        <v>5129</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="493" spans="1:15">
@@ -42712,7 +42744,7 @@
     </row>
     <row r="511" spans="1:13">
       <c r="A511" t="s">
-        <v>5308</v>
+        <v>5300</v>
       </c>
       <c r="B511" t="s">
         <v>3074</v>
@@ -42723,7 +42755,7 @@
     </row>
     <row r="512" spans="1:13">
       <c r="A512" t="s">
-        <v>5309</v>
+        <v>5301</v>
       </c>
       <c r="B512" t="s">
         <v>3076</v>
@@ -42734,13 +42766,13 @@
     </row>
     <row r="513" spans="1:13" ht="409.5">
       <c r="A513" t="s">
-        <v>5310</v>
+        <v>5302</v>
       </c>
       <c r="B513" s="5" t="s">
         <v>3078</v>
       </c>
       <c r="M513" s="5" t="s">
-        <v>5349</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="514" spans="1:13">
@@ -42773,7 +42805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q273"/>
   <sheetViews>
-    <sheetView topLeftCell="B98" workbookViewId="0">
+    <sheetView topLeftCell="K123" workbookViewId="0">
       <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
@@ -44530,7 +44562,7 @@
         <v>3438</v>
       </c>
       <c r="M127" s="5" t="s">
-        <v>5099</v>
+        <v>5368</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>3439</v>
@@ -46502,8 +46534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q313"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="J288" workbookViewId="0">
+      <selection activeCell="M245" sqref="M245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -50718,7 +50750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -50781,7 +50813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="111.4" customHeight="1">
+    <row r="2" spans="1:17" ht="337.5">
       <c r="A2" t="s">
         <v>4809</v>
       </c>
@@ -50789,43 +50821,43 @@
         <v>4810</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>5374</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>4811</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>4812</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4812</v>
+      </c>
+      <c r="M4" t="s">
         <v>4813</v>
       </c>
-      <c r="B4" t="s">
-        <v>4813</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="O4" s="1" t="s">
         <v>4814</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>4815</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
       <c r="B5" t="s">
+        <v>4812</v>
+      </c>
+      <c r="M5" t="s">
         <v>4813</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" s="1" t="s">
         <v>4814</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>4815</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1046</v>
@@ -50834,166 +50866,166 @@
         <v>1047</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>4819</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="M7" t="s">
         <v>4820</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" s="1" t="s">
         <v>4821</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>4822</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
       <c r="B8" t="s">
         <v>4783</v>
       </c>
       <c r="M8" t="s">
+        <v>4823</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>4824</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>4825</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
       <c r="B9" t="s">
         <v>4787</v>
       </c>
       <c r="M9" t="s">
+        <v>4826</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>4827</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>4828</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B10" t="s">
         <v>4829</v>
       </c>
-      <c r="B10" t="s">
+      <c r="M10" t="s">
         <v>4830</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" s="1" t="s">
         <v>4831</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>4832</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
       <c r="B11" t="s">
         <v>4791</v>
       </c>
       <c r="M11" t="s">
+        <v>4833</v>
+      </c>
+      <c r="O11" t="s">
         <v>4834</v>
-      </c>
-      <c r="O11" t="s">
-        <v>4835</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B12" t="s">
         <v>4836</v>
       </c>
-      <c r="B12" t="s">
+      <c r="M12" t="s">
         <v>4837</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" s="1" t="s">
         <v>4838</v>
       </c>
-      <c r="O12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="393.75">
+      <c r="A13" s="4" t="s">
         <v>4839</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="112.5">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>4840</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="M13" s="5" t="s">
+        <v>5373</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>4841</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>4842</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>4843</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="B14" t="s">
         <v>4807</v>
       </c>
       <c r="M14" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4846</v>
+      </c>
+      <c r="M15" t="s">
         <v>4847</v>
       </c>
-      <c r="B15" t="s">
+      <c r="O15" s="1" t="s">
         <v>4848</v>
-      </c>
-      <c r="M15" t="s">
-        <v>4849</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>4850</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4849</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4850</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>4851</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4851</v>
-      </c>
-      <c r="M17" t="s">
-        <v>4852</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>4853</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
-        <v>4854</v>
+        <v>4852</v>
       </c>
       <c r="B18" t="s">
+        <v>4849</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4850</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>4851</v>
-      </c>
-      <c r="M18" t="s">
-        <v>4852</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>4853</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1046</v>
@@ -51002,152 +51034,152 @@
         <v>1047</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4855</v>
+      </c>
+      <c r="M20" t="s">
         <v>4856</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="O20" s="1" t="s">
         <v>4857</v>
-      </c>
-      <c r="M20" t="s">
-        <v>4858</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>4859</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4859</v>
+      </c>
+      <c r="M21" t="s">
         <v>4860</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="O21" s="1" t="s">
         <v>4861</v>
-      </c>
-      <c r="M21" t="s">
-        <v>4862</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>4863</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21.4" customHeight="1">
       <c r="A22" s="4" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4863</v>
+      </c>
+      <c r="M22" t="s">
         <v>4864</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="O22" s="1" t="s">
         <v>4865</v>
-      </c>
-      <c r="M22" t="s">
-        <v>4866</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>4867</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4867</v>
+      </c>
+      <c r="M23" t="s">
         <v>4868</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="O23" s="1" t="s">
         <v>4869</v>
-      </c>
-      <c r="M23" t="s">
-        <v>4870</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>4871</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4871</v>
+      </c>
+      <c r="M24" t="s">
         <v>4872</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="O24" s="1" t="s">
         <v>4873</v>
       </c>
-      <c r="M24" t="s">
+    </row>
+    <row r="25" spans="1:15" ht="375">
+      <c r="A25" s="4" t="s">
         <v>4874</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>4875</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" ht="131.25">
-      <c r="A25" s="4" t="s">
+      <c r="M25" s="5" t="s">
+        <v>5372</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>4876</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>4877</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>4878</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>4879</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4878</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4879</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>4880</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4881</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4882</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>4883</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4882</v>
+      </c>
+      <c r="M27" t="s">
+        <v>4883</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>4884</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4885</v>
-      </c>
-      <c r="M27" t="s">
-        <v>4886</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>4887</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>4888</v>
+        <v>4885</v>
       </c>
       <c r="B29" t="s">
-        <v>4888</v>
+        <v>4885</v>
       </c>
       <c r="M29" t="s">
-        <v>4889</v>
+        <v>4886</v>
       </c>
       <c r="O29" t="s">
-        <v>4890</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>4891</v>
+        <v>4888</v>
       </c>
       <c r="B30" t="s">
-        <v>4888</v>
+        <v>4885</v>
       </c>
       <c r="M30" t="s">
-        <v>4889</v>
+        <v>4886</v>
       </c>
       <c r="O30" t="s">
-        <v>4890</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>4892</v>
+        <v>4889</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>1046</v>
@@ -51161,156 +51193,156 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4891</v>
+      </c>
+      <c r="M32" t="s">
+        <v>4892</v>
+      </c>
+      <c r="O32" t="s">
         <v>4893</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4894</v>
-      </c>
-      <c r="M32" t="s">
-        <v>4895</v>
-      </c>
-      <c r="O32" t="s">
-        <v>4896</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4895</v>
+      </c>
+      <c r="M33" t="s">
+        <v>4896</v>
+      </c>
+      <c r="O33" t="s">
         <v>4897</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4898</v>
-      </c>
-      <c r="M33" t="s">
-        <v>4899</v>
-      </c>
-      <c r="O33" t="s">
-        <v>4900</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
-        <v>4901</v>
+        <v>4898</v>
       </c>
       <c r="B34" t="s">
         <v>1834</v>
       </c>
       <c r="M34" t="s">
-        <v>4902</v>
+        <v>4899</v>
       </c>
       <c r="O34" t="s">
-        <v>4903</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="4" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4902</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4903</v>
+      </c>
+      <c r="O35" t="s">
         <v>4904</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4905</v>
-      </c>
-      <c r="M35" t="s">
-        <v>4906</v>
-      </c>
-      <c r="O35" t="s">
-        <v>4907</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="4" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4906</v>
+      </c>
+      <c r="M36" t="s">
+        <v>4907</v>
+      </c>
+      <c r="O36" t="s">
         <v>4908</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4909</v>
-      </c>
-      <c r="M36" t="s">
-        <v>4910</v>
-      </c>
-      <c r="O36" t="s">
-        <v>4911</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4910</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4911</v>
+      </c>
+      <c r="O37" t="s">
         <v>4912</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:15" ht="409.5">
+      <c r="A38" s="4" t="s">
         <v>4913</v>
       </c>
-      <c r="M37" t="s">
+      <c r="B38" s="5" t="s">
         <v>4914</v>
       </c>
-      <c r="O37" t="s">
+      <c r="M38" s="5" t="s">
+        <v>5370</v>
+      </c>
+      <c r="O38" s="5" t="s">
         <v>4915</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="189.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>4916</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>4917</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>4918</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>4919</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>4920</v>
+        <v>4916</v>
       </c>
       <c r="B39" t="s">
         <v>1853</v>
       </c>
       <c r="M39" t="s">
-        <v>4921</v>
+        <v>4917</v>
       </c>
       <c r="O39" t="s">
-        <v>4922</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="4" t="s">
-        <v>4923</v>
+        <v>4919</v>
       </c>
       <c r="B40" t="s">
-        <v>4924</v>
+        <v>4920</v>
       </c>
       <c r="M40" t="s">
-        <v>4925</v>
+        <v>4921</v>
       </c>
       <c r="O40" t="s">
-        <v>4926</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>4927</v>
+        <v>4923</v>
       </c>
       <c r="B41" t="s">
-        <v>4928</v>
+        <v>4924</v>
       </c>
       <c r="M41" t="s">
-        <v>4929</v>
+        <v>4925</v>
       </c>
       <c r="O41" t="s">
-        <v>4930</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="4" t="s">
-        <v>4931</v>
+        <v>4927</v>
       </c>
       <c r="B42" t="s">
-        <v>4932</v>
+        <v>4928</v>
       </c>
       <c r="M42" t="s">
-        <v>4933</v>
+        <v>4929</v>
       </c>
       <c r="O42" t="s">
-        <v>4934</v>
+        <v>4930</v>
       </c>
     </row>
   </sheetData>
@@ -51332,8 +51364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="E35" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -51394,35 +51426,35 @@
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1">
       <c r="A2" t="s">
-        <v>4935</v>
+        <v>4931</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4936</v>
+        <v>4932</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>4937</v>
+        <v>4933</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>4938</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
-        <v>4939</v>
+        <v>4935</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4936</v>
+        <v>4932</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>4937</v>
+        <v>4933</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>4938</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4" t="s">
-        <v>4940</v>
+        <v>4936</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1046</v>
@@ -51431,32 +51463,32 @@
         <v>1047</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>4941</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4" t="s">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4943</v>
+        <v>4939</v>
       </c>
       <c r="M5" t="s">
-        <v>4944</v>
+        <v>4940</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>4945</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>4946</v>
+        <v>4942</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4947</v>
+        <v>4943</v>
       </c>
       <c r="M6" t="s">
-        <v>4948</v>
+        <v>4944</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>1148</v>
@@ -51464,13 +51496,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4" t="s">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4950</v>
+        <v>4946</v>
       </c>
       <c r="M7" t="s">
-        <v>4951</v>
+        <v>4947</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>1629</v>
@@ -51478,105 +51510,105 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4" t="s">
-        <v>4952</v>
+        <v>4948</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4953</v>
+        <v>4949</v>
       </c>
       <c r="M8" t="s">
-        <v>4954</v>
+        <v>4950</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>4955</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18" customHeight="1">
       <c r="A9" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4953</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4954</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="318.75">
+      <c r="A10" s="4" t="s">
         <v>4956</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>4957</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" s="5" t="s">
+        <v>5364</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>4958</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>4959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="75">
-      <c r="A10" s="4" t="s">
-        <v>4960</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>4961</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>4962</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>4963</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4" t="s">
-        <v>4964</v>
+        <v>4959</v>
       </c>
       <c r="B11" t="s">
-        <v>4965</v>
+        <v>4960</v>
       </c>
       <c r="M11" t="s">
-        <v>4966</v>
+        <v>4961</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>4967</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4" t="s">
-        <v>4968</v>
+        <v>4963</v>
       </c>
       <c r="B12" t="s">
-        <v>4969</v>
+        <v>4964</v>
       </c>
       <c r="M12" t="s">
-        <v>4970</v>
+        <v>4965</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>4971</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>4972</v>
+        <v>4967</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4973</v>
+        <v>4968</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>4974</v>
+        <v>4969</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>4975</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4" t="s">
-        <v>4976</v>
+        <v>4971</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4973</v>
+        <v>4968</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>4974</v>
+        <v>4969</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>4975</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4" t="s">
-        <v>4977</v>
+        <v>4972</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1046</v>
@@ -51585,18 +51617,18 @@
         <v>1047</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>4941</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4979</v>
+        <v>4974</v>
       </c>
       <c r="M17" t="s">
-        <v>4980</v>
+        <v>4975</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>1148</v>
@@ -51604,13 +51636,13 @@
     </row>
     <row r="18" spans="1:15" ht="20.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>4981</v>
+        <v>4976</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>4982</v>
+        <v>4977</v>
       </c>
       <c r="M18" t="s">
-        <v>4983</v>
+        <v>4978</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>1629</v>
@@ -51618,105 +51650,105 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
-        <v>4984</v>
+        <v>4979</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4985</v>
+        <v>4980</v>
       </c>
       <c r="M19" t="s">
-        <v>4986</v>
+        <v>4981</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>4955</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4983</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4984</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="375">
+      <c r="A21" s="4" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>4987</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="M21" s="5" t="s">
+        <v>5365</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>4988</v>
-      </c>
-      <c r="M20" t="s">
-        <v>4989</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>4990</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="88.5" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>4991</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>4992</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>4993</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>4994</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
-        <v>4995</v>
+        <v>4989</v>
       </c>
       <c r="B22" t="s">
-        <v>4996</v>
+        <v>4990</v>
       </c>
       <c r="M22" t="s">
-        <v>4997</v>
+        <v>4991</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>4998</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
-        <v>4999</v>
+        <v>4993</v>
       </c>
       <c r="B23" t="s">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="M23" t="s">
-        <v>5001</v>
+        <v>4995</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>5002</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>5003</v>
+        <v>4997</v>
       </c>
       <c r="B25" t="s">
-        <v>5003</v>
+        <v>4997</v>
       </c>
       <c r="M25" t="s">
-        <v>5004</v>
+        <v>4998</v>
       </c>
       <c r="O25" t="s">
-        <v>5005</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="B26" t="s">
-        <v>5003</v>
+        <v>4997</v>
       </c>
       <c r="M26" t="s">
-        <v>5004</v>
+        <v>4998</v>
       </c>
       <c r="O26" t="s">
-        <v>5005</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>5007</v>
+        <v>5001</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>1046</v>
@@ -51730,13 +51762,13 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="4" t="s">
-        <v>5008</v>
+        <v>5002</v>
       </c>
       <c r="B28" t="s">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="M28" t="s">
-        <v>5010</v>
+        <v>5004</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>1148</v>
@@ -51744,13 +51776,13 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>5011</v>
+        <v>5005</v>
       </c>
       <c r="B29" t="s">
-        <v>5012</v>
+        <v>5006</v>
       </c>
       <c r="M29" t="s">
-        <v>5013</v>
+        <v>5007</v>
       </c>
       <c r="O29" t="s">
         <v>1218</v>
@@ -51758,27 +51790,27 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>5014</v>
+        <v>5008</v>
       </c>
       <c r="B30" t="s">
-        <v>5015</v>
+        <v>5009</v>
       </c>
       <c r="M30" t="s">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>4955</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>5017</v>
+        <v>5011</v>
       </c>
       <c r="B31" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="M31" t="s">
-        <v>5019</v>
+        <v>5013</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>1629</v>
@@ -51786,86 +51818,86 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>5020</v>
+        <v>5014</v>
       </c>
       <c r="B32" t="s">
-        <v>5021</v>
+        <v>5015</v>
       </c>
       <c r="M32" t="s">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="O32" t="s">
-        <v>5023</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="4" t="s">
-        <v>5024</v>
+        <v>5018</v>
       </c>
       <c r="B33" t="s">
-        <v>5025</v>
+        <v>5019</v>
       </c>
       <c r="M33" t="s">
-        <v>5026</v>
+        <v>5020</v>
       </c>
       <c r="O33" t="s">
-        <v>5027</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
       <c r="A34" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5023</v>
+      </c>
+      <c r="M34" t="s">
+        <v>5024</v>
+      </c>
+      <c r="O34" t="s">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="393.75">
+      <c r="A35" s="4" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>5027</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>5371</v>
+      </c>
+      <c r="O35" s="5" t="s">
         <v>5028</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5029</v>
-      </c>
-      <c r="M34" t="s">
-        <v>5030</v>
-      </c>
-      <c r="O34" t="s">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="168.75">
-      <c r="A35" s="4" t="s">
-        <v>5032</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>5033</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>5034</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>5035</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="4" t="s">
-        <v>5036</v>
+        <v>5029</v>
       </c>
       <c r="B36" t="s">
-        <v>5037</v>
+        <v>5030</v>
       </c>
       <c r="M36" t="s">
-        <v>5038</v>
+        <v>5031</v>
       </c>
       <c r="O36" t="s">
-        <v>5039</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="4" t="s">
-        <v>5040</v>
+        <v>5033</v>
       </c>
       <c r="B37" t="s">
-        <v>5041</v>
+        <v>5034</v>
       </c>
       <c r="M37" t="s">
-        <v>5042</v>
+        <v>5035</v>
       </c>
       <c r="O37" t="s">
-        <v>5043</v>
+        <v>5036</v>
       </c>
     </row>
   </sheetData>
@@ -51887,8 +51919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D10" zoomScale="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -51951,35 +51983,35 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>5044</v>
+        <v>5037</v>
       </c>
       <c r="B2" t="s">
-        <v>5045</v>
+        <v>5038</v>
       </c>
       <c r="M2" t="s">
-        <v>5046</v>
+        <v>5039</v>
       </c>
       <c r="O2" t="s">
-        <v>5047</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
-        <v>5048</v>
+        <v>5041</v>
       </c>
       <c r="B3" t="s">
-        <v>5045</v>
+        <v>5038</v>
       </c>
       <c r="M3" t="s">
-        <v>5046</v>
+        <v>5039</v>
       </c>
       <c r="O3" t="s">
-        <v>5047</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="4" t="s">
-        <v>5049</v>
+        <v>5042</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1046</v>
@@ -51993,55 +52025,55 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="4" t="s">
-        <v>5050</v>
+        <v>5043</v>
       </c>
       <c r="B5" t="s">
-        <v>5051</v>
+        <v>5044</v>
       </c>
       <c r="M5" t="s">
-        <v>5052</v>
+        <v>5045</v>
       </c>
       <c r="O5" t="s">
-        <v>5053</v>
+        <v>5046</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
-        <v>5054</v>
+        <v>5047</v>
       </c>
       <c r="B6" t="s">
-        <v>5055</v>
+        <v>5048</v>
       </c>
       <c r="M6" t="s">
-        <v>5056</v>
+        <v>5049</v>
       </c>
       <c r="O6" t="s">
-        <v>5057</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>5058</v>
+        <v>5051</v>
       </c>
       <c r="B7" t="s">
-        <v>5059</v>
+        <v>5052</v>
       </c>
       <c r="M7" t="s">
-        <v>5060</v>
+        <v>5053</v>
       </c>
       <c r="O7" t="s">
-        <v>5061</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
-        <v>5062</v>
+        <v>5055</v>
       </c>
       <c r="B8" t="s">
-        <v>5063</v>
+        <v>5056</v>
       </c>
       <c r="M8" t="s">
-        <v>5064</v>
+        <v>5057</v>
       </c>
       <c r="O8" t="s">
         <v>1148</v>
@@ -52049,41 +52081,41 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
-        <v>5065</v>
+        <v>5058</v>
       </c>
       <c r="B9" t="s">
-        <v>5066</v>
+        <v>5059</v>
       </c>
       <c r="M9" t="s">
-        <v>5067</v>
+        <v>5060</v>
       </c>
       <c r="O9" t="s">
-        <v>5068</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>5069</v>
+        <v>5062</v>
       </c>
       <c r="B10" t="s">
-        <v>5070</v>
+        <v>5063</v>
       </c>
       <c r="M10" t="s">
-        <v>5071</v>
+        <v>5064</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>4955</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="4" t="s">
-        <v>5072</v>
+        <v>5065</v>
       </c>
       <c r="B11" t="s">
-        <v>5073</v>
+        <v>5066</v>
       </c>
       <c r="M11" t="s">
-        <v>5074</v>
+        <v>5067</v>
       </c>
       <c r="O11" t="s">
         <v>1629</v>
@@ -52091,58 +52123,58 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>5075</v>
+        <v>5068</v>
       </c>
       <c r="B12" t="s">
-        <v>5076</v>
+        <v>5069</v>
       </c>
       <c r="M12" t="s">
-        <v>5077</v>
+        <v>5070</v>
       </c>
       <c r="O12" t="s">
-        <v>5078</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="192" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>5079</v>
+        <v>5072</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5080</v>
+        <v>5073</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>5081</v>
+        <v>5074</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>5082</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>5083</v>
+        <v>5076</v>
       </c>
       <c r="B14" t="s">
-        <v>5084</v>
+        <v>5077</v>
       </c>
       <c r="M14" t="s">
-        <v>5085</v>
+        <v>5078</v>
       </c>
       <c r="O14" t="s">
-        <v>5086</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>5087</v>
+        <v>5080</v>
       </c>
       <c r="B15" t="s">
-        <v>5088</v>
+        <v>5081</v>
       </c>
       <c r="M15" t="s">
-        <v>5089</v>
+        <v>5082</v>
       </c>
       <c r="O15" t="s">
-        <v>5090</v>
+        <v>5083</v>
       </c>
     </row>
   </sheetData>

--- a/ExtremeRolesTransData.xlsx
+++ b/ExtremeRolesTransData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\.PROJ\GIT\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9371AFB-7F6E-49A0-964B-457BB784AA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9426FE48-3AAF-48B8-ADF0-53A2995D0F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="4335" windowWidth="20910" windowHeight="11835" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2265" yWindow="975" windowWidth="26160" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7341" uniqueCount="5375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7343" uniqueCount="5377">
   <si>
     <t>English</t>
   </si>
@@ -24920,6 +24920,20 @@
 このシールドはヴィランによるキルや、自爆等の特殊キルには効果がない。
 &lt;/indent&gt;
 &lt;br&gt;</t>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>文章（テスト中）：</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="31"/>
+  </si>
+  <si>
+    <t>Yuhgao</t>
     <phoneticPr fontId="31"/>
   </si>
 </sst>
@@ -26260,8 +26274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q334"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="M339" sqref="M339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -27431,6 +27445,9 @@
       <c r="B94" s="3" t="s">
         <v>325</v>
       </c>
+      <c r="M94" t="s">
+        <v>5375</v>
+      </c>
       <c r="O94" t="s">
         <v>326</v>
       </c>
@@ -27441,6 +27458,9 @@
       </c>
       <c r="B95" s="3" t="s">
         <v>328</v>
+      </c>
+      <c r="M95" t="s">
+        <v>5376</v>
       </c>
       <c r="O95" t="s">
         <v>329</v>
@@ -50750,7 +50770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" workbookViewId="0">
+    <sheetView topLeftCell="J2" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
